--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,12 +70,60 @@
     <t>Log32_Test_Base_Acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Log16_Train_Loss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Train_Loss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Train_Loss3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Train_Loss4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Loss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Loss2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Loss3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Loss4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Acc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Acc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Acc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log16_Test_Acc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +172,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -147,11 +211,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -439,6 +506,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -727,6 +795,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1015,6 +1084,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1303,15 +1373,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50015232"/>
-        <c:axId val="50042368"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="121358976"/>
+        <c:axId val="121361536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50015232"/>
+        <c:axId val="121358976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1330,19 +1410,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50042368"/>
+        <c:crossAx val="121361536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50042368"/>
+        <c:axId val="121361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1362,11 +1445,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50015232"/>
+        <c:crossAx val="121358976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1374,8 +1459,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1387,7 +1475,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1407,11 +1505,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1699,6 +1800,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1987,15 +2089,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49887488"/>
-        <c:axId val="49918336"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="159594752"/>
+        <c:axId val="161781632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49887488"/>
+        <c:axId val="159594752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2015,19 +2127,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49918336"/>
+        <c:crossAx val="161781632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49918336"/>
+        <c:axId val="161781632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2047,11 +2162,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49887488"/>
+        <c:crossAx val="159594752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2059,8 +2176,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2072,7 +2192,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2092,11 +2222,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2387,6 +2520,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2666,6 +2800,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2957,6 +3092,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3236,6 +3372,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3527,6 +3664,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3818,6 +3956,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4109,6 +4248,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4400,15 +4540,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50101632"/>
-        <c:axId val="50116096"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="250879360"/>
+        <c:axId val="250897536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50101632"/>
+        <c:axId val="250879360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4428,19 +4578,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50116096"/>
+        <c:crossAx val="250897536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50116096"/>
+        <c:axId val="250897536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4461,11 +4614,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50101632"/>
+        <c:crossAx val="250879360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4473,8 +4628,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4486,7 +4644,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4506,11 +4674,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4789,6 +4960,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5068,6 +5240,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5359,6 +5532,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5650,15 +5824,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50316032"/>
-        <c:axId val="50317952"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="254370176"/>
+        <c:axId val="254372096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50316032"/>
+        <c:axId val="254370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5678,20 +5862,23 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50317952"/>
+        <c:crossAx val="254372096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50317952"/>
+        <c:axId val="254372096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5711,11 +5898,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50316032"/>
+        <c:crossAx val="254370176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5723,8 +5912,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5734,25 +5926,4578 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Train_Base_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.82213</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.72861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2807900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3232200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4610300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.19875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97910900000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2015800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0978699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97356100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70760900000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84556600000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01919</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0693900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94132700000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59976399999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82795600000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84919900000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99340700000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90224800000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.594171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79932099999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75520299999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91832599999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89169799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58931100000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78839499999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.720835</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84954099999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85654799999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58581300000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75726499999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.71892299999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76987899999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.80862699999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56925599999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69332499999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66314499999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.53002899999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.53028799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Train_Loss1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.7404900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.50705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2565500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.38547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3559399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3699600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2285900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99412100000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.00173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0979399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.14164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.01389</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.81763799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.842839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0023599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0389900000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96014999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76885400000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84475299999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87350799999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0153000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90235600000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70554499999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77400100000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80824499999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94003499999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83536600000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.668659</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72189599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.80918900000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.777945</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81207399999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.58131500000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66348700000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.83365500000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75547500000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.83226599999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.55561899999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67690799999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76013299999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58222399999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61423300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Train_Loss2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.85998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6589400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5870599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.61372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4103600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.34507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3207500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4812799999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2974600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2822899999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0864</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0886899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4132899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2454499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1953499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.986375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0962499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2184900000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0665800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0692299999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94342800000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98594000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.15954</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99082400000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0396799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81883799999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88741400000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.16669</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92192600000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.00725</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77050799999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.82931299999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0296099999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91834499999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0122800000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72898200000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.79803299999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.07193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.81059199999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.807473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Train_Loss3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.82284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7089399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.69025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7855300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4503699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.38171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3471599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.28037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3938999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.29823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2955300000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1731199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2228399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1936899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.14283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2394099999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98233400000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.04298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.14605</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.16998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0735699999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85519299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.972414</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1181399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0907500000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95744300000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76627400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.16466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2657099999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2928299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0709200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89406399999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0707899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1150199999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0889200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72823000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.965646</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.97267099999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77048700000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76696500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Train_Loss4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.76522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3797900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3812199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22742</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.23245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98729500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2669900000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2111700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0724199999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.84523899999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96187199999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.18302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0805499999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95316500000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78951499999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77460099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1516</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93179000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93590600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.713561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67499600000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94438800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77434800000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81675299999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62803600000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64819400000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92137599999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73464799999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.80321399999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.676929</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60438999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.89861100000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.712009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.768119</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.52851499999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59627300000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.84377999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57178799999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.57204200000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="154233088"/>
+        <c:axId val="154243840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="154233088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154243840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="154243840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="154233088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Base_Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="4">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.7036</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.70840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.7379</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.7419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Acc1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.39610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58209999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67179999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6673</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69520000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70609999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.6895</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.70650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71220000000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7046</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74050000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73950000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Acc2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.33129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49120000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55379999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.56669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57720000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55969999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.63360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Acc3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.31890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55579999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.58809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60219999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.60929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.58940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59830000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.622</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63070000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65869999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.63219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69420000000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Acc4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.37759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58220000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59409999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59430000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63449999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67290000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67179999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68410000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68220000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.69320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67769999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6845</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.70479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.67710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.73340000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338175872"/>
+        <c:axId val="338177408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338175872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338177408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338177408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="338175872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Base_Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="4">
+                  <c:v>1.33785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.33785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.33785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.33785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.33785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.13673</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.13673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.13673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.13673</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98554799999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98554799999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98554799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98554799999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98554799999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.946048</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.946048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.946048</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.946048</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.946048</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90921600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88694499999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88694499999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88694499999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88694499999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88694499999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88342200000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88342200000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88342200000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88342200000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88342200000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87039100000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77805400000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77118600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Loss1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.68181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5940700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4155800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.42672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.28562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1570100000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.17377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0817300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.06833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0763799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0357099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0323500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0304199999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95855199999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.06287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0706599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0083800000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94414799999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.949102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.01796</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94045599999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92311699999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.915883</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90336099999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96629900000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99057499999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88428600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.91385099999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88461900000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89633099999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.90992799999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87275100000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92267999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87199099999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88645700000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88255399999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.84169300000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.882046</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76579200000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76460799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Loss2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.81853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8812800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0337800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6449400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5328599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4864200000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4380200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.42113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3686700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.48353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.26319</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2763</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2410399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2834700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2197100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2214499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.19156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.25237</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.17778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1623399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.27841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1212200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1098300000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1595899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.07894</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.07908</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.10633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.07542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0650500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0424500000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0813200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0570900000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0878000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0073300000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.01034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.01694</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.00543</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0026299999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.98563999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88505800000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.87454799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Loss3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.9298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.76247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6518600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6570400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5074399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5380199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.49342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4496599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4109499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3301400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2959700000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2341</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2693399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3107200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.23387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2001500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1607499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1619299999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2825599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1431800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.14842</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.09911</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1297200000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0521100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.12517</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0816300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.07904</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0321999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.34832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.19892</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.18573</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0965800000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.16855</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.10423</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0748</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1636899999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99667600000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.01203</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.06718</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90562100000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89364100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log16_Test_Loss4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.7115400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6436299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5139100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3416699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.29511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1917599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.17391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1868300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1696800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1598299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0983099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0749899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0800399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.02627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0628599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.01112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99816499999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0260199999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97097800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96952000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.985823</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95281800000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96326199999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.939079</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94086199999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96377599999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94803700000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97191799999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.91268899999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9506</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93092900000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91857599999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92845999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.877834</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96457099999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96956900000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91084799999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.91584299999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79361999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.785134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261006848"/>
+        <c:axId val="261008384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261006848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261008384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261008384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="261006848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5768,21 +10513,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>733424</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5798,21 +10545,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5828,21 +10577,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5859,8 +10610,109 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5934,6 +10786,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5968,6 +10821,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6143,14 +10997,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="4" sqref="A1:A1048576 D1:D1048576 G1:G1048576 J1:J1048576 M1:M1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y1" activeCellId="5" sqref="A1:A1048576 C1:C1048576 P1:P1048576 S1:S1048576 V1:V1048576 Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="23.875" customWidth="1"/>
@@ -6158,9 +11012,21 @@
     <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.875" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6200,8 +11066,44 @@
       <c r="M1" t="s">
         <v>6</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100</v>
       </c>
@@ -6229,8 +11131,44 @@
       <c r="M2">
         <v>0.35289999999999999</v>
       </c>
+      <c r="N2">
+        <v>1.7404900000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1.68181</v>
+      </c>
+      <c r="Q2">
+        <v>1.85998</v>
+      </c>
+      <c r="R2">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="S2">
+        <v>1.81853</v>
+      </c>
+      <c r="T2">
+        <v>1.82284</v>
+      </c>
+      <c r="U2">
+        <v>0.31890000000000002</v>
+      </c>
+      <c r="V2">
+        <v>1.9298</v>
+      </c>
+      <c r="W2">
+        <v>1.76522</v>
+      </c>
+      <c r="X2">
+        <v>0.37759999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>1.7115400000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200</v>
       </c>
@@ -6258,8 +11196,44 @@
       <c r="M3">
         <v>0.41909999999999997</v>
       </c>
+      <c r="N3">
+        <v>1.50705</v>
+      </c>
+      <c r="O3">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="P3">
+        <v>1.5940700000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.86314</v>
+      </c>
+      <c r="R3">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="S3">
+        <v>1.8812800000000001</v>
+      </c>
+      <c r="T3">
+        <v>1.7089399999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="V3">
+        <v>1.76247</v>
+      </c>
+      <c r="W3">
+        <v>1.65791</v>
+      </c>
+      <c r="X3">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="Y3">
+        <v>1.6436299999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>300</v>
       </c>
@@ -6287,8 +11261,44 @@
       <c r="M4">
         <v>0.45860000000000001</v>
       </c>
+      <c r="N4">
+        <v>1.2565500000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.4924</v>
+      </c>
+      <c r="P4">
+        <v>1.4155800000000001</v>
+      </c>
+      <c r="Q4">
+        <v>1.6589400000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.3256</v>
+      </c>
+      <c r="S4">
+        <v>2.0337800000000001</v>
+      </c>
+      <c r="T4">
+        <v>1.66736</v>
+      </c>
+      <c r="U4">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="V4">
+        <v>1.6518600000000001</v>
+      </c>
+      <c r="W4">
+        <v>1.54372</v>
+      </c>
+      <c r="X4">
+        <v>0.4662</v>
+      </c>
+      <c r="Y4">
+        <v>1.5139100000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>400</v>
       </c>
@@ -6316,8 +11326,44 @@
       <c r="M5">
         <v>0.5202</v>
       </c>
+      <c r="N5">
+        <v>1.38547</v>
+      </c>
+      <c r="O5">
+        <v>0.49419999999999997</v>
+      </c>
+      <c r="P5">
+        <v>1.42672</v>
+      </c>
+      <c r="Q5">
+        <v>1.5870599999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="S5">
+        <v>1.6449400000000001</v>
+      </c>
+      <c r="T5">
+        <v>1.69025</v>
+      </c>
+      <c r="U5">
+        <v>0.4042</v>
+      </c>
+      <c r="V5">
+        <v>1.6570400000000001</v>
+      </c>
+      <c r="W5">
+        <v>1.3797900000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.4798</v>
+      </c>
+      <c r="Y5">
+        <v>1.4438</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>500</v>
       </c>
@@ -6357,8 +11403,44 @@
       <c r="M6">
         <v>0.54479999999999995</v>
       </c>
+      <c r="N6">
+        <v>1.3559399999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="P6">
+        <v>1.24149</v>
+      </c>
+      <c r="Q6">
+        <v>1.61372</v>
+      </c>
+      <c r="R6">
+        <v>0.4501</v>
+      </c>
+      <c r="S6">
+        <v>1.5328599999999999</v>
+      </c>
+      <c r="T6">
+        <v>1.7855300000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="V6">
+        <v>1.5074399999999999</v>
+      </c>
+      <c r="W6">
+        <v>1.3812199999999999</v>
+      </c>
+      <c r="X6">
+        <v>0.53559999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>1.3416699999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>600</v>
       </c>
@@ -6398,8 +11480,44 @@
       <c r="M7">
         <v>0.56389999999999996</v>
       </c>
+      <c r="N7">
+        <v>1.3699600000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="P7">
+        <v>1.28562</v>
+      </c>
+      <c r="Q7">
+        <v>1.5529999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="S7">
+        <v>1.51387</v>
+      </c>
+      <c r="T7">
+        <v>1.4503699999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="V7">
+        <v>1.5380199999999999</v>
+      </c>
+      <c r="W7">
+        <v>1.22742</v>
+      </c>
+      <c r="X7">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="Y7">
+        <v>1.27888</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>700</v>
       </c>
@@ -6439,8 +11557,44 @@
       <c r="M8">
         <v>0.56640000000000001</v>
       </c>
+      <c r="N8">
+        <v>1.2285900000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="P8">
+        <v>1.26494</v>
+      </c>
+      <c r="Q8">
+        <v>1.4103600000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.46889999999999998</v>
+      </c>
+      <c r="S8">
+        <v>1.4864200000000001</v>
+      </c>
+      <c r="T8">
+        <v>1.38171</v>
+      </c>
+      <c r="U8">
+        <v>0.47120000000000001</v>
+      </c>
+      <c r="V8">
+        <v>1.49342</v>
+      </c>
+      <c r="W8">
+        <v>1.23245</v>
+      </c>
+      <c r="X8">
+        <v>0.53710000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>1.29511</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>800</v>
       </c>
@@ -6480,8 +11634,44 @@
       <c r="M9">
         <v>0.58609999999999995</v>
       </c>
+      <c r="N9">
+        <v>0.99412100000000003</v>
+      </c>
+      <c r="O9">
+        <v>0.60189999999999999</v>
+      </c>
+      <c r="P9">
+        <v>1.1570100000000001</v>
+      </c>
+      <c r="Q9">
+        <v>1.34507</v>
+      </c>
+      <c r="R9">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="S9">
+        <v>1.4380200000000001</v>
+      </c>
+      <c r="T9">
+        <v>1.3471599999999999</v>
+      </c>
+      <c r="U9">
+        <v>0.48580000000000001</v>
+      </c>
+      <c r="V9">
+        <v>1.4496599999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.98729500000000003</v>
+      </c>
+      <c r="X9">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="Y9">
+        <v>1.1917599999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>900</v>
       </c>
@@ -6521,8 +11711,44 @@
       <c r="M10">
         <v>0.60609999999999997</v>
       </c>
+      <c r="N10">
+        <v>1.00173</v>
+      </c>
+      <c r="O10">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="P10">
+        <v>1.17377</v>
+      </c>
+      <c r="Q10">
+        <v>1.3207500000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="S10">
+        <v>1.42113</v>
+      </c>
+      <c r="T10">
+        <v>1.28037</v>
+      </c>
+      <c r="U10">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="V10">
+        <v>1.4109499999999999</v>
+      </c>
+      <c r="W10">
+        <v>1.0527</v>
+      </c>
+      <c r="X10">
+        <v>0.59379999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>1.17391</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -6562,8 +11788,44 @@
       <c r="M11">
         <v>0.62039999999999995</v>
       </c>
+      <c r="N11">
+        <v>1.0979399999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="P11">
+        <v>1.0817300000000001</v>
+      </c>
+      <c r="Q11">
+        <v>1.4812799999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.5131</v>
+      </c>
+      <c r="S11">
+        <v>1.3686700000000001</v>
+      </c>
+      <c r="T11">
+        <v>1.3938999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="V11">
+        <v>1.3301400000000001</v>
+      </c>
+      <c r="W11">
+        <v>1.2669900000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>1.1868300000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -6603,8 +11865,44 @@
       <c r="M12">
         <v>0.63629999999999998</v>
       </c>
+      <c r="N12">
+        <v>1.14164</v>
+      </c>
+      <c r="O12">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="P12">
+        <v>1.06833</v>
+      </c>
+      <c r="Q12">
+        <v>1.2974600000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="S12">
+        <v>1.48353</v>
+      </c>
+      <c r="T12">
+        <v>1.29823</v>
+      </c>
+      <c r="U12">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="V12">
+        <v>1.2959700000000001</v>
+      </c>
+      <c r="W12">
+        <v>1.2111700000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="Y12">
+        <v>1.1696800000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -6644,8 +11942,44 @@
       <c r="M13">
         <v>0.6361</v>
       </c>
+      <c r="N13">
+        <v>1.01389</v>
+      </c>
+      <c r="O13">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="P13">
+        <v>1.0763799999999999</v>
+      </c>
+      <c r="Q13">
+        <v>1.2822899999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="S13">
+        <v>1.26319</v>
+      </c>
+      <c r="T13">
+        <v>1.2955300000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="V13">
+        <v>1.2341</v>
+      </c>
+      <c r="W13">
+        <v>1.0724199999999999</v>
+      </c>
+      <c r="X13">
+        <v>0.59430000000000005</v>
+      </c>
+      <c r="Y13">
+        <v>1.1598299999999999</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -6685,8 +12019,44 @@
       <c r="M14">
         <v>0.63790000000000002</v>
       </c>
+      <c r="N14">
+        <v>0.81763799999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="P14">
+        <v>1.0357099999999999</v>
+      </c>
+      <c r="Q14">
+        <v>1.0864</v>
+      </c>
+      <c r="R14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="S14">
+        <v>1.2763</v>
+      </c>
+      <c r="T14">
+        <v>1.1731199999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="V14">
+        <v>1.2693399999999999</v>
+      </c>
+      <c r="W14">
+        <v>0.84523899999999996</v>
+      </c>
+      <c r="X14">
+        <v>0.621</v>
+      </c>
+      <c r="Y14">
+        <v>1.0983099999999999</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -6726,8 +12096,44 @@
       <c r="M15">
         <v>0.64900000000000002</v>
       </c>
+      <c r="N15">
+        <v>0.842839</v>
+      </c>
+      <c r="O15">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="P15">
+        <v>1.0323500000000001</v>
+      </c>
+      <c r="Q15">
+        <v>1.0886899999999999</v>
+      </c>
+      <c r="R15">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="S15">
+        <v>1.2410399999999999</v>
+      </c>
+      <c r="T15">
+        <v>1.2228399999999999</v>
+      </c>
+      <c r="U15">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="V15">
+        <v>1.3107200000000001</v>
+      </c>
+      <c r="W15">
+        <v>0.96187199999999995</v>
+      </c>
+      <c r="X15">
+        <v>0.62809999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>1.0749899999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -6767,8 +12173,44 @@
       <c r="M16">
         <v>0.65810000000000002</v>
       </c>
+      <c r="N16">
+        <v>1.0023599999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.64359999999999995</v>
+      </c>
+      <c r="P16">
+        <v>1.0304199999999999</v>
+      </c>
+      <c r="Q16">
+        <v>1.4132899999999999</v>
+      </c>
+      <c r="R16">
+        <v>0.55759999999999998</v>
+      </c>
+      <c r="S16">
+        <v>1.2834700000000001</v>
+      </c>
+      <c r="T16">
+        <v>1.1936899999999999</v>
+      </c>
+      <c r="U16">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="V16">
+        <v>1.23387</v>
+      </c>
+      <c r="W16">
+        <v>1.18302</v>
+      </c>
+      <c r="X16">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>1.0800399999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -6808,8 +12250,44 @@
       <c r="M17">
         <v>0.66959999999999997</v>
       </c>
+      <c r="N17">
+        <v>1.0389900000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="P17">
+        <v>0.95855199999999996</v>
+      </c>
+      <c r="Q17">
+        <v>1.2454499999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="S17">
+        <v>1.2197100000000001</v>
+      </c>
+      <c r="T17">
+        <v>1.14283</v>
+      </c>
+      <c r="U17">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="V17">
+        <v>1.2001500000000001</v>
+      </c>
+      <c r="W17">
+        <v>1.0805499999999999</v>
+      </c>
+      <c r="X17">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>1.02627</v>
+      </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -6849,8 +12327,44 @@
       <c r="M18">
         <v>0.66059999999999997</v>
       </c>
+      <c r="N18">
+        <v>0.96014999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="P18">
+        <v>1.06287</v>
+      </c>
+      <c r="Q18">
+        <v>1.1953499999999999</v>
+      </c>
+      <c r="R18">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="S18">
+        <v>1.2214499999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.2394099999999999</v>
+      </c>
+      <c r="U18">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="V18">
+        <v>1.1607499999999999</v>
+      </c>
+      <c r="W18">
+        <v>0.95316500000000004</v>
+      </c>
+      <c r="X18">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="Y18">
+        <v>1.0628599999999999</v>
+      </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -6890,8 +12404,44 @@
       <c r="M19">
         <v>0.66410000000000002</v>
       </c>
+      <c r="N19">
+        <v>0.76885400000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="P19">
+        <v>1.0706599999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.986375</v>
+      </c>
+      <c r="R19">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="S19">
+        <v>1.19156</v>
+      </c>
+      <c r="T19">
+        <v>0.98233400000000004</v>
+      </c>
+      <c r="U19">
+        <v>0.60070000000000001</v>
+      </c>
+      <c r="V19">
+        <v>1.1619299999999999</v>
+      </c>
+      <c r="W19">
+        <v>0.78951499999999997</v>
+      </c>
+      <c r="X19">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="Y19">
+        <v>1.01112</v>
+      </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -6931,8 +12481,44 @@
       <c r="M20">
         <v>0.67430000000000001</v>
       </c>
+      <c r="N20">
+        <v>0.84475299999999998</v>
+      </c>
+      <c r="O20">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="P20">
+        <v>1.0083800000000001</v>
+      </c>
+      <c r="Q20">
+        <v>1.0962499999999999</v>
+      </c>
+      <c r="R20">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="S20">
+        <v>1.25237</v>
+      </c>
+      <c r="T20">
+        <v>1.04298</v>
+      </c>
+      <c r="U20">
+        <v>0.5534</v>
+      </c>
+      <c r="V20">
+        <v>1.2825599999999999</v>
+      </c>
+      <c r="W20">
+        <v>0.77460099999999998</v>
+      </c>
+      <c r="X20">
+        <v>0.65920000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.99816499999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -6972,8 +12558,44 @@
       <c r="M21">
         <v>0.67110000000000003</v>
       </c>
+      <c r="N21">
+        <v>0.87350799999999995</v>
+      </c>
+      <c r="O21">
+        <v>0.6794</v>
+      </c>
+      <c r="P21">
+        <v>0.94414799999999999</v>
+      </c>
+      <c r="Q21">
+        <v>1.2184900000000001</v>
+      </c>
+      <c r="R21">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="S21">
+        <v>1.17778</v>
+      </c>
+      <c r="T21">
+        <v>1.14605</v>
+      </c>
+      <c r="U21">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="V21">
+        <v>1.1431800000000001</v>
+      </c>
+      <c r="W21">
+        <v>1.1516</v>
+      </c>
+      <c r="X21">
+        <v>0.65059999999999996</v>
+      </c>
+      <c r="Y21">
+        <v>1.0260199999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -7013,8 +12635,44 @@
       <c r="M22">
         <v>0.68630000000000002</v>
       </c>
+      <c r="N22">
+        <v>1.0153000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.949102</v>
+      </c>
+      <c r="Q22">
+        <v>1.0665800000000001</v>
+      </c>
+      <c r="R22">
+        <v>0.59930000000000005</v>
+      </c>
+      <c r="S22">
+        <v>1.1623399999999999</v>
+      </c>
+      <c r="T22">
+        <v>1.16998</v>
+      </c>
+      <c r="U22">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="V22">
+        <v>1.14842</v>
+      </c>
+      <c r="W22">
+        <v>0.93179000000000001</v>
+      </c>
+      <c r="X22">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="Y22">
+        <v>0.97097800000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -7054,8 +12712,44 @@
       <c r="M23">
         <v>0.68610000000000004</v>
       </c>
+      <c r="N23">
+        <v>0.90235600000000005</v>
+      </c>
+      <c r="O23">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="P23">
+        <v>1.01796</v>
+      </c>
+      <c r="Q23">
+        <v>1.0692299999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="S23">
+        <v>1.27841</v>
+      </c>
+      <c r="T23">
+        <v>1.0735699999999999</v>
+      </c>
+      <c r="U23">
+        <v>0.62490000000000001</v>
+      </c>
+      <c r="V23">
+        <v>1.0998000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.93590600000000002</v>
+      </c>
+      <c r="X23">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="Y23">
+        <v>0.96952000000000005</v>
+      </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -7095,8 +12789,44 @@
       <c r="M24">
         <v>0.68149999999999999</v>
       </c>
+      <c r="N24">
+        <v>0.70554499999999998</v>
+      </c>
+      <c r="O24">
+        <v>0.68059999999999998</v>
+      </c>
+      <c r="P24">
+        <v>0.94045599999999996</v>
+      </c>
+      <c r="Q24">
+        <v>0.94342800000000004</v>
+      </c>
+      <c r="R24">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="S24">
+        <v>1.1212200000000001</v>
+      </c>
+      <c r="T24">
+        <v>0.85519299999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="V24">
+        <v>1.09911</v>
+      </c>
+      <c r="W24">
+        <v>0.713561</v>
+      </c>
+      <c r="X24">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="Y24">
+        <v>0.985823</v>
+      </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -7136,8 +12866,44 @@
       <c r="M25">
         <v>0.68420000000000003</v>
       </c>
+      <c r="N25">
+        <v>0.77400100000000005</v>
+      </c>
+      <c r="O25">
+        <v>0.68459999999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.92311699999999997</v>
+      </c>
+      <c r="Q25">
+        <v>0.98594000000000004</v>
+      </c>
+      <c r="R25">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="S25">
+        <v>1.1098300000000001</v>
+      </c>
+      <c r="T25">
+        <v>0.972414</v>
+      </c>
+      <c r="U25">
+        <v>0.61150000000000004</v>
+      </c>
+      <c r="V25">
+        <v>1.1297200000000001</v>
+      </c>
+      <c r="W25">
+        <v>0.67499600000000004</v>
+      </c>
+      <c r="X25">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="Y25">
+        <v>0.95281800000000005</v>
+      </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -7177,8 +12943,44 @@
       <c r="M26">
         <v>0.68420000000000003</v>
       </c>
+      <c r="N26">
+        <v>0.80824499999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="P26">
+        <v>0.915883</v>
+      </c>
+      <c r="Q26">
+        <v>1.15954</v>
+      </c>
+      <c r="R26">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="S26">
+        <v>1.1595899999999999</v>
+      </c>
+      <c r="T26">
+        <v>1.1181399999999999</v>
+      </c>
+      <c r="U26">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="V26">
+        <v>1.0521100000000001</v>
+      </c>
+      <c r="W26">
+        <v>0.94438800000000001</v>
+      </c>
+      <c r="X26">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="Y26">
+        <v>0.96326199999999995</v>
+      </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -7218,8 +13020,44 @@
       <c r="M27">
         <v>0.69740000000000002</v>
       </c>
+      <c r="N27">
+        <v>0.94003499999999995</v>
+      </c>
+      <c r="O27">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="P27">
+        <v>0.90336099999999997</v>
+      </c>
+      <c r="Q27">
+        <v>0.99082400000000004</v>
+      </c>
+      <c r="R27">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="S27">
+        <v>1.07894</v>
+      </c>
+      <c r="T27">
+        <v>1.0907500000000001</v>
+      </c>
+      <c r="U27">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="V27">
+        <v>1.12517</v>
+      </c>
+      <c r="W27">
+        <v>0.77434800000000004</v>
+      </c>
+      <c r="X27">
+        <v>0.68410000000000004</v>
+      </c>
+      <c r="Y27">
+        <v>0.939079</v>
+      </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -7259,8 +13097,44 @@
       <c r="M28">
         <v>0.69259999999999999</v>
       </c>
+      <c r="N28">
+        <v>0.83536600000000005</v>
+      </c>
+      <c r="O28">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="P28">
+        <v>0.96629900000000002</v>
+      </c>
+      <c r="Q28">
+        <v>1.0396799999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.627</v>
+      </c>
+      <c r="S28">
+        <v>1.07908</v>
+      </c>
+      <c r="T28">
+        <v>0.95744300000000004</v>
+      </c>
+      <c r="U28">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="V28">
+        <v>1.0816300000000001</v>
+      </c>
+      <c r="W28">
+        <v>0.81675299999999995</v>
+      </c>
+      <c r="X28">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="Y28">
+        <v>0.94086199999999998</v>
+      </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -7300,8 +13174,44 @@
       <c r="M29">
         <v>0.69230000000000003</v>
       </c>
+      <c r="N29">
+        <v>0.668659</v>
+      </c>
+      <c r="O29">
+        <v>0.6673</v>
+      </c>
+      <c r="P29">
+        <v>0.99057499999999998</v>
+      </c>
+      <c r="Q29">
+        <v>0.81883799999999995</v>
+      </c>
+      <c r="R29">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="S29">
+        <v>1.10633</v>
+      </c>
+      <c r="T29">
+        <v>0.76627400000000001</v>
+      </c>
+      <c r="U29">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="V29">
+        <v>1.07904</v>
+      </c>
+      <c r="W29">
+        <v>0.62803600000000004</v>
+      </c>
+      <c r="X29">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="Y29">
+        <v>0.96377599999999997</v>
+      </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -7341,8 +13251,44 @@
       <c r="M30">
         <v>0.69479999999999997</v>
       </c>
+      <c r="N30">
+        <v>0.72189599999999998</v>
+      </c>
+      <c r="O30">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="P30">
+        <v>0.88428600000000002</v>
+      </c>
+      <c r="Q30">
+        <v>0.88741400000000004</v>
+      </c>
+      <c r="R30">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="S30">
+        <v>1.07542</v>
+      </c>
+      <c r="T30">
+        <v>2.16466</v>
+      </c>
+      <c r="U30">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="V30">
+        <v>5.0321999999999996</v>
+      </c>
+      <c r="W30">
+        <v>0.64819400000000005</v>
+      </c>
+      <c r="X30">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="Y30">
+        <v>0.94803700000000002</v>
+      </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -7382,8 +13328,44 @@
       <c r="M31">
         <v>0.69569999999999999</v>
       </c>
+      <c r="N31">
+        <v>0.80918900000000005</v>
+      </c>
+      <c r="O31">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P31">
+        <v>0.91385099999999997</v>
+      </c>
+      <c r="Q31">
+        <v>1.16669</v>
+      </c>
+      <c r="R31">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="S31">
+        <v>1.0650500000000001</v>
+      </c>
+      <c r="T31">
+        <v>1.2657099999999999</v>
+      </c>
+      <c r="U31">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="V31">
+        <v>1.34832</v>
+      </c>
+      <c r="W31">
+        <v>0.92137599999999997</v>
+      </c>
+      <c r="X31">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="Y31">
+        <v>0.97191799999999995</v>
+      </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -7423,8 +13405,44 @@
       <c r="M32">
         <v>0.70789999999999997</v>
       </c>
+      <c r="N32">
+        <v>0.777945</v>
+      </c>
+      <c r="O32">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="P32">
+        <v>0.88461900000000004</v>
+      </c>
+      <c r="Q32">
+        <v>0.92192600000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="S32">
+        <v>1.0424500000000001</v>
+      </c>
+      <c r="T32">
+        <v>1.2928299999999999</v>
+      </c>
+      <c r="U32">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="V32">
+        <v>1.19892</v>
+      </c>
+      <c r="W32">
+        <v>0.73464799999999997</v>
+      </c>
+      <c r="X32">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="Y32">
+        <v>0.91268899999999997</v>
+      </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -7464,8 +13482,44 @@
       <c r="M33">
         <v>0.70579999999999998</v>
       </c>
+      <c r="N33">
+        <v>0.81207399999999996</v>
+      </c>
+      <c r="O33">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.89633099999999999</v>
+      </c>
+      <c r="Q33">
+        <v>1.00725</v>
+      </c>
+      <c r="R33">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="S33">
+        <v>1.0813200000000001</v>
+      </c>
+      <c r="T33">
+        <v>1.0709200000000001</v>
+      </c>
+      <c r="U33">
+        <v>0.58940000000000003</v>
+      </c>
+      <c r="V33">
+        <v>1.18573</v>
+      </c>
+      <c r="W33">
+        <v>0.80321399999999998</v>
+      </c>
+      <c r="X33">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="Y33">
+        <v>0.9506</v>
+      </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -7505,8 +13559,44 @@
       <c r="M34">
         <v>0.70450000000000002</v>
       </c>
+      <c r="N34">
+        <v>0.58131500000000003</v>
+      </c>
+      <c r="O34">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="P34">
+        <v>0.90992799999999996</v>
+      </c>
+      <c r="Q34">
+        <v>0.77050799999999997</v>
+      </c>
+      <c r="R34">
+        <v>0.6401</v>
+      </c>
+      <c r="S34">
+        <v>1.0570900000000001</v>
+      </c>
+      <c r="T34">
+        <v>0.89406399999999997</v>
+      </c>
+      <c r="U34">
+        <v>0.62109999999999999</v>
+      </c>
+      <c r="V34">
+        <v>1.0965800000000001</v>
+      </c>
+      <c r="W34">
+        <v>0.676929</v>
+      </c>
+      <c r="X34">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="Y34">
+        <v>0.93092900000000001</v>
+      </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -7546,8 +13636,44 @@
       <c r="M35">
         <v>0.69599999999999995</v>
       </c>
+      <c r="N35">
+        <v>0.66348700000000005</v>
+      </c>
+      <c r="O35">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="P35">
+        <v>0.87275100000000005</v>
+      </c>
+      <c r="Q35">
+        <v>0.82931299999999997</v>
+      </c>
+      <c r="R35">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="S35">
+        <v>1.0878000000000001</v>
+      </c>
+      <c r="T35">
+        <v>1.0707899999999999</v>
+      </c>
+      <c r="U35">
+        <v>0.59830000000000005</v>
+      </c>
+      <c r="V35">
+        <v>1.16855</v>
+      </c>
+      <c r="W35">
+        <v>0.60438999999999998</v>
+      </c>
+      <c r="X35">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>0.91857599999999995</v>
+      </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -7587,8 +13713,44 @@
       <c r="M36">
         <v>0.70169999999999999</v>
       </c>
+      <c r="N36">
+        <v>0.83365500000000003</v>
+      </c>
+      <c r="O36">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="P36">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="Q36">
+        <v>1.0296099999999999</v>
+      </c>
+      <c r="R36">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="S36">
+        <v>1.0073300000000001</v>
+      </c>
+      <c r="T36">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="U36">
+        <v>0.622</v>
+      </c>
+      <c r="V36">
+        <v>1.10423</v>
+      </c>
+      <c r="W36">
+        <v>0.89861100000000005</v>
+      </c>
+      <c r="X36">
+        <v>0.6845</v>
+      </c>
+      <c r="Y36">
+        <v>0.92845999999999995</v>
+      </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -7628,8 +13790,44 @@
       <c r="M37">
         <v>0.71189999999999998</v>
       </c>
+      <c r="N37">
+        <v>0.75547500000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="P37">
+        <v>0.87199099999999996</v>
+      </c>
+      <c r="Q37">
+        <v>0.91834499999999997</v>
+      </c>
+      <c r="R37">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="S37">
+        <v>1.01034</v>
+      </c>
+      <c r="T37">
+        <v>1.1150199999999999</v>
+      </c>
+      <c r="U37">
+        <v>0.63070000000000004</v>
+      </c>
+      <c r="V37">
+        <v>1.0748</v>
+      </c>
+      <c r="W37">
+        <v>0.712009</v>
+      </c>
+      <c r="X37">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="Y37">
+        <v>0.877834</v>
+      </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -7669,8 +13867,44 @@
       <c r="M38">
         <v>0.7056</v>
       </c>
+      <c r="N38">
+        <v>0.83226599999999995</v>
+      </c>
+      <c r="O38">
+        <v>0.6895</v>
+      </c>
+      <c r="P38">
+        <v>0.88645700000000005</v>
+      </c>
+      <c r="Q38">
+        <v>1.0122800000000001</v>
+      </c>
+      <c r="R38">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="S38">
+        <v>1.01694</v>
+      </c>
+      <c r="T38">
+        <v>1.0889200000000001</v>
+      </c>
+      <c r="U38">
+        <v>0.60019999999999996</v>
+      </c>
+      <c r="V38">
+        <v>1.1636899999999999</v>
+      </c>
+      <c r="W38">
+        <v>0.768119</v>
+      </c>
+      <c r="X38">
+        <v>0.67710000000000004</v>
+      </c>
+      <c r="Y38">
+        <v>0.96457099999999996</v>
+      </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -7710,8 +13944,44 @@
       <c r="M39">
         <v>0.70660000000000001</v>
       </c>
+      <c r="N39">
+        <v>0.55561899999999997</v>
+      </c>
+      <c r="O39">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="P39">
+        <v>0.88255399999999995</v>
+      </c>
+      <c r="Q39">
+        <v>0.72898200000000002</v>
+      </c>
+      <c r="R39">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="S39">
+        <v>1.00543</v>
+      </c>
+      <c r="T39">
+        <v>0.72823000000000004</v>
+      </c>
+      <c r="U39">
+        <v>0.65869999999999995</v>
+      </c>
+      <c r="V39">
+        <v>0.99667600000000001</v>
+      </c>
+      <c r="W39">
+        <v>0.52851499999999996</v>
+      </c>
+      <c r="X39">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>0.96956900000000001</v>
+      </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -7751,8 +14021,44 @@
       <c r="M40">
         <v>0.69810000000000005</v>
       </c>
+      <c r="N40">
+        <v>0.67690799999999995</v>
+      </c>
+      <c r="O40">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="P40">
+        <v>0.84169300000000002</v>
+      </c>
+      <c r="Q40">
+        <v>0.79803299999999999</v>
+      </c>
+      <c r="R40">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="S40">
+        <v>1.0026299999999999</v>
+      </c>
+      <c r="T40">
+        <v>0.965646</v>
+      </c>
+      <c r="U40">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="V40">
+        <v>1.01203</v>
+      </c>
+      <c r="W40">
+        <v>0.59627300000000005</v>
+      </c>
+      <c r="X40">
+        <v>0.6875</v>
+      </c>
+      <c r="Y40">
+        <v>0.91084799999999999</v>
+      </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -7792,8 +14098,44 @@
       <c r="M41">
         <v>0.70099999999999996</v>
       </c>
+      <c r="N41">
+        <v>0.76013299999999995</v>
+      </c>
+      <c r="O41">
+        <v>0.7046</v>
+      </c>
+      <c r="P41">
+        <v>0.882046</v>
+      </c>
+      <c r="Q41">
+        <v>1.07193</v>
+      </c>
+      <c r="R41">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="S41">
+        <v>0.98563999999999996</v>
+      </c>
+      <c r="T41">
+        <v>0.97267099999999995</v>
+      </c>
+      <c r="U41">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="V41">
+        <v>1.06718</v>
+      </c>
+      <c r="W41">
+        <v>0.84377999999999997</v>
+      </c>
+      <c r="X41">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="Y41">
+        <v>0.91584299999999996</v>
+      </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4500</v>
       </c>
@@ -7833,8 +14175,44 @@
       <c r="M42">
         <v>0.73919999999999997</v>
       </c>
+      <c r="N42">
+        <v>0.58222399999999996</v>
+      </c>
+      <c r="O42">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="P42">
+        <v>0.76579200000000003</v>
+      </c>
+      <c r="Q42">
+        <v>0.81059199999999998</v>
+      </c>
+      <c r="R42">
+        <v>0.70330000000000004</v>
+      </c>
+      <c r="S42">
+        <v>0.88505800000000001</v>
+      </c>
+      <c r="T42">
+        <v>0.77048700000000003</v>
+      </c>
+      <c r="U42">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="V42">
+        <v>0.90562100000000001</v>
+      </c>
+      <c r="W42">
+        <v>0.57178799999999996</v>
+      </c>
+      <c r="X42">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="Y42">
+        <v>0.79361999999999999</v>
+      </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>5000</v>
       </c>
@@ -7873,26 +14251,61 @@
       </c>
       <c r="M43">
         <v>0.74309999999999998</v>
+      </c>
+      <c r="N43">
+        <v>0.61423300000000003</v>
+      </c>
+      <c r="O43">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="P43">
+        <v>0.76460799999999995</v>
+      </c>
+      <c r="Q43">
+        <v>0.807473</v>
+      </c>
+      <c r="R43">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="S43">
+        <v>0.87454799999999999</v>
+      </c>
+      <c r="T43">
+        <v>0.76696500000000001</v>
+      </c>
+      <c r="U43">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="V43">
+        <v>0.89364100000000002</v>
+      </c>
+      <c r="W43">
+        <v>0.57204200000000005</v>
+      </c>
+      <c r="X43">
+        <v>0.73</v>
+      </c>
+      <c r="Y43">
+        <v>0.785134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" activeCellId="1" sqref="B45 B50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>100</v>
       </c>
@@ -7900,7 +14313,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200</v>
       </c>
@@ -7908,7 +14321,7 @@
         <v>1.54399</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>300</v>
       </c>
@@ -7916,7 +14329,7 @@
         <v>1.21025</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>400</v>
       </c>
@@ -7924,7 +14337,7 @@
         <v>1.2250399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>500</v>
       </c>
@@ -7932,7 +14345,7 @@
         <v>1.40486</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>600</v>
       </c>
@@ -7940,7 +14353,7 @@
         <v>1.22722</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>700</v>
       </c>
@@ -7948,7 +14361,7 @@
         <v>1.2252700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>800</v>
       </c>
@@ -7956,7 +14369,7 @@
         <v>0.86980999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>900</v>
       </c>
@@ -7964,7 +14377,7 @@
         <v>1.0119</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -7972,7 +14385,7 @@
         <v>1.0942700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -7980,7 +14393,7 @@
         <v>1.06179</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1200</v>
       </c>
@@ -7988,7 +14401,7 @@
         <v>1.0481499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1300</v>
       </c>
@@ -7996,7 +14409,7 @@
         <v>0.71119299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1400</v>
       </c>
@@ -8004,7 +14417,7 @@
         <v>0.90256899999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -8012,7 +14425,7 @@
         <v>0.91443099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1600</v>
       </c>
@@ -8020,7 +14433,7 @@
         <v>0.84824699999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1700</v>
       </c>
@@ -8028,7 +14441,7 @@
         <v>0.91861700000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -8036,7 +14449,7 @@
         <v>0.637324</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1900</v>
       </c>
@@ -8044,7 +14457,7 @@
         <v>0.81530400000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -8052,7 +14465,7 @@
         <v>0.83082299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2100</v>
       </c>
@@ -8060,7 +14473,7 @@
         <v>0.79962500000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2200</v>
       </c>
@@ -8068,7 +14481,7 @@
         <v>0.86688200000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2300</v>
       </c>
@@ -8076,7 +14489,7 @@
         <v>0.54902799999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2400</v>
       </c>
@@ -8084,7 +14497,7 @@
         <v>0.80520599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2500</v>
       </c>
@@ -8092,7 +14505,7 @@
         <v>0.743668</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2600</v>
       </c>
@@ -8100,7 +14513,7 @@
         <v>0.72719199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2700</v>
       </c>
@@ -8108,7 +14521,7 @@
         <v>0.80559800000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2800</v>
       </c>
@@ -8116,7 +14529,7 @@
         <v>0.49884800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2900</v>
       </c>
@@ -8124,7 +14537,7 @@
         <v>0.74312900000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -8132,7 +14545,7 @@
         <v>0.71632200000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3100</v>
       </c>
@@ -8140,7 +14553,7 @@
         <v>0.68742000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3200</v>
       </c>
@@ -8148,7 +14561,7 @@
         <v>0.75489499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3300</v>
       </c>
@@ -8156,7 +14569,7 @@
         <v>0.46958299999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3400</v>
       </c>
@@ -8164,7 +14577,7 @@
         <v>0.73646199999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3500</v>
       </c>
@@ -8172,7 +14585,7 @@
         <v>0.69908800000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3600</v>
       </c>
@@ -8180,7 +14593,7 @@
         <v>0.66128200000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3700</v>
       </c>
@@ -8188,7 +14601,7 @@
         <v>0.74506600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3800</v>
       </c>
@@ -8196,7 +14609,7 @@
         <v>0.43353700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3900</v>
       </c>
@@ -8204,7 +14617,7 @@
         <v>0.68332199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -8212,7 +14625,7 @@
         <v>0.70272699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4100</v>
       </c>
@@ -8220,7 +14633,7 @@
         <v>0.59489099999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4200</v>
       </c>
@@ -8228,7 +14641,7 @@
         <v>0.67361099999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4300</v>
       </c>
@@ -8236,7 +14649,7 @@
         <v>0.33901999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4400</v>
       </c>
@@ -8244,7 +14657,7 @@
         <v>0.43901600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4500</v>
       </c>
@@ -8252,7 +14665,7 @@
         <v>0.48141600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4600</v>
       </c>
@@ -8260,7 +14673,7 @@
         <v>0.55011500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4700</v>
       </c>
@@ -8268,7 +14681,7 @@
         <v>0.63587499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>4800</v>
       </c>
@@ -8276,7 +14689,7 @@
         <v>0.31819700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>4900</v>
       </c>
@@ -8284,7 +14697,7 @@
         <v>0.41874400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>5000</v>
       </c>
@@ -8299,14 +14712,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21495" windowHeight="9570" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="9570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,12 +119,55 @@
     <t>Log16_Test_Acc4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>blobs_lr</t>
+  </si>
+  <si>
+    <t>weight_decay_bias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_decay_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasso_decay_q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr1_lasso_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k_Acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k_Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +216,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -182,17 +294,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -211,14 +313,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -506,7 +605,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -795,7 +893,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1084,7 +1181,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1373,25 +1469,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="121358976"/>
-        <c:axId val="121361536"/>
+        <c:dLbls/>
+        <c:axId val="89748608"/>
+        <c:axId val="89750528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121358976"/>
+        <c:axId val="89748608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1410,22 +1497,19 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121361536"/>
+        <c:crossAx val="89750528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121361536"/>
+        <c:axId val="89750528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1445,13 +1529,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121358976"/>
+        <c:crossAx val="89748608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,15 +1541,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1475,17 +1555,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1504,15 +1574,11 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1800,7 +1866,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2089,25 +2154,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="159594752"/>
-        <c:axId val="161781632"/>
+        <c:dLbls/>
+        <c:axId val="86631168"/>
+        <c:axId val="86633088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159594752"/>
+        <c:axId val="86631168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2126,23 +2182,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161781632"/>
+        <c:crossAx val="86633088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161781632"/>
+        <c:axId val="86633088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2161,30 +2213,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159594752"/>
+        <c:crossAx val="86631168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2192,17 +2238,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2222,14 +2258,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2520,7 +2553,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2800,7 +2832,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3092,7 +3123,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3372,7 +3402,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3664,7 +3693,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3956,7 +3984,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4248,7 +4275,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4540,25 +4566,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="250879360"/>
-        <c:axId val="250897536"/>
+        <c:dLbls/>
+        <c:axId val="87017344"/>
+        <c:axId val="87023616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="250879360"/>
+        <c:axId val="87017344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4578,22 +4595,19 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250897536"/>
+        <c:crossAx val="87023616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="250897536"/>
+        <c:axId val="87023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4614,13 +4628,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250879360"/>
+        <c:crossAx val="87017344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4628,15 +4640,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4644,17 +4654,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4674,14 +4674,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4960,7 +4957,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5240,7 +5236,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5532,7 +5527,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5824,25 +5818,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="254370176"/>
-        <c:axId val="254372096"/>
+        <c:dLbls/>
+        <c:axId val="91327488"/>
+        <c:axId val="88409216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254370176"/>
+        <c:axId val="91327488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5862,23 +5847,20 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254372096"/>
+        <c:crossAx val="88409216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254372096"/>
+        <c:axId val="88409216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.3000000000000001"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5898,13 +5880,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254370176"/>
+        <c:crossAx val="91327488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5912,15 +5892,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5928,24 +5906,12 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6233,7 +6199,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6522,7 +6487,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6811,7 +6775,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7100,7 +7063,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7389,47 +7351,33 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="154233088"/>
-        <c:axId val="154243840"/>
+        <c:dLbls/>
+        <c:axId val="88443520"/>
+        <c:axId val="88461696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154233088"/>
+        <c:axId val="88443520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154243840"/>
+        <c:crossAx val="88461696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="154243840"/>
+        <c:axId val="88461696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154233088"/>
+        <c:crossAx val="88443520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7437,15 +7385,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7453,24 +7399,12 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7746,7 +7680,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8035,7 +7968,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8324,7 +8256,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8613,7 +8544,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8902,63 +8832,46 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="338175872"/>
-        <c:axId val="338177408"/>
+        <c:dLbls/>
+        <c:axId val="88511232"/>
+        <c:axId val="88512768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338175872"/>
+        <c:axId val="88511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338177408"/>
+        <c:crossAx val="88512768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338177408"/>
+        <c:axId val="88512768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338175872"/>
+        <c:crossAx val="88511232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8966,24 +8879,12 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9259,7 +9160,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9548,7 +9448,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9837,7 +9736,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10126,7 +10024,6 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10415,63 +10312,46 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="261006848"/>
-        <c:axId val="261008384"/>
+        <c:dLbls/>
+        <c:axId val="91405312"/>
+        <c:axId val="91419392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="261006848"/>
+        <c:axId val="91405312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261008384"/>
+        <c:crossAx val="91419392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261008384"/>
+        <c:axId val="91419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261006848"/>
+        <c:crossAx val="91405312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10712,14 +10592,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -10786,7 +10666,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -10821,7 +10700,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10997,14 +10875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" activeCellId="5" sqref="A1:A1048576 C1:C1048576 P1:P1048576 S1:S1048576 V1:V1048576 Y1:Y1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="23.875" customWidth="1"/>
@@ -11026,7 +10904,7 @@
     <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11103,7 +10981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11168,7 +11046,7 @@
         <v>1.7115400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -11233,7 +11111,7 @@
         <v>1.6436299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -11298,7 +11176,7 @@
         <v>1.5139100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -11363,7 +11241,7 @@
         <v>1.4438</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -11440,7 +11318,7 @@
         <v>1.3416699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -11517,7 +11395,7 @@
         <v>1.27888</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -11594,7 +11472,7 @@
         <v>1.29511</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -11671,7 +11549,7 @@
         <v>1.1917599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -11748,7 +11626,7 @@
         <v>1.17391</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -11825,7 +11703,7 @@
         <v>1.1868300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -11902,7 +11780,7 @@
         <v>1.1696800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -11979,7 +11857,7 @@
         <v>1.1598299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -12056,7 +11934,7 @@
         <v>1.0983099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -12133,7 +12011,7 @@
         <v>1.0749899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -12210,7 +12088,7 @@
         <v>1.0800399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -12287,7 +12165,7 @@
         <v>1.02627</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -12364,7 +12242,7 @@
         <v>1.0628599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -12441,7 +12319,7 @@
         <v>1.01112</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -12518,7 +12396,7 @@
         <v>0.99816499999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -12595,7 +12473,7 @@
         <v>1.0260199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -12672,7 +12550,7 @@
         <v>0.97097800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -12749,7 +12627,7 @@
         <v>0.96952000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -12826,7 +12704,7 @@
         <v>0.985823</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -12903,7 +12781,7 @@
         <v>0.95281800000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -12980,7 +12858,7 @@
         <v>0.96326199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -13057,7 +12935,7 @@
         <v>0.939079</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -13134,7 +13012,7 @@
         <v>0.94086199999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -13211,7 +13089,7 @@
         <v>0.96377599999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -13288,7 +13166,7 @@
         <v>0.94803700000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -13365,7 +13243,7 @@
         <v>0.97191799999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -13442,7 +13320,7 @@
         <v>0.91268899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:25">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -13519,7 +13397,7 @@
         <v>0.9506</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -13596,7 +13474,7 @@
         <v>0.93092900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -13673,7 +13551,7 @@
         <v>0.91857599999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -13750,7 +13628,7 @@
         <v>0.92845999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -13827,7 +13705,7 @@
         <v>0.877834</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -13904,7 +13782,7 @@
         <v>0.96457099999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:25">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -13981,7 +13859,7 @@
         <v>0.96956900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:25">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -14058,7 +13936,7 @@
         <v>0.91084799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -14135,7 +14013,7 @@
         <v>0.91584299999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:25">
       <c r="A42">
         <v>4500</v>
       </c>
@@ -14212,7 +14090,7 @@
         <v>0.79361999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:25">
       <c r="A43">
         <v>5000</v>
       </c>
@@ -14296,16 +14174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>100</v>
       </c>
@@ -14313,7 +14191,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>200</v>
       </c>
@@ -14321,7 +14199,7 @@
         <v>1.54399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>300</v>
       </c>
@@ -14329,7 +14207,7 @@
         <v>1.21025</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>400</v>
       </c>
@@ -14337,7 +14215,7 @@
         <v>1.2250399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>500</v>
       </c>
@@ -14345,7 +14223,7 @@
         <v>1.40486</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>600</v>
       </c>
@@ -14353,7 +14231,7 @@
         <v>1.22722</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>700</v>
       </c>
@@ -14361,7 +14239,7 @@
         <v>1.2252700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>800</v>
       </c>
@@ -14369,7 +14247,7 @@
         <v>0.86980999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>900</v>
       </c>
@@ -14377,7 +14255,7 @@
         <v>1.0119</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -14385,7 +14263,7 @@
         <v>1.0942700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -14393,7 +14271,7 @@
         <v>1.06179</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1200</v>
       </c>
@@ -14401,7 +14279,7 @@
         <v>1.0481499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1300</v>
       </c>
@@ -14409,7 +14287,7 @@
         <v>0.71119299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1400</v>
       </c>
@@ -14417,7 +14295,7 @@
         <v>0.90256899999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -14425,7 +14303,7 @@
         <v>0.91443099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1600</v>
       </c>
@@ -14433,7 +14311,7 @@
         <v>0.84824699999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1700</v>
       </c>
@@ -14441,7 +14319,7 @@
         <v>0.91861700000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -14449,7 +14327,7 @@
         <v>0.637324</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1900</v>
       </c>
@@ -14457,7 +14335,7 @@
         <v>0.81530400000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -14465,7 +14343,7 @@
         <v>0.83082299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>2100</v>
       </c>
@@ -14473,7 +14351,7 @@
         <v>0.79962500000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>2200</v>
       </c>
@@ -14481,7 +14359,7 @@
         <v>0.86688200000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2300</v>
       </c>
@@ -14489,7 +14367,7 @@
         <v>0.54902799999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>2400</v>
       </c>
@@ -14497,7 +14375,7 @@
         <v>0.80520599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>2500</v>
       </c>
@@ -14505,7 +14383,7 @@
         <v>0.743668</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>2600</v>
       </c>
@@ -14513,7 +14391,7 @@
         <v>0.72719199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>2700</v>
       </c>
@@ -14521,7 +14399,7 @@
         <v>0.80559800000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>2800</v>
       </c>
@@ -14529,7 +14407,7 @@
         <v>0.49884800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2900</v>
       </c>
@@ -14537,7 +14415,7 @@
         <v>0.74312900000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -14545,7 +14423,7 @@
         <v>0.71632200000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>3100</v>
       </c>
@@ -14553,7 +14431,7 @@
         <v>0.68742000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>3200</v>
       </c>
@@ -14561,7 +14439,7 @@
         <v>0.75489499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>3300</v>
       </c>
@@ -14569,7 +14447,7 @@
         <v>0.46958299999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>3400</v>
       </c>
@@ -14577,7 +14455,7 @@
         <v>0.73646199999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>3500</v>
       </c>
@@ -14585,7 +14463,7 @@
         <v>0.69908800000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>3600</v>
       </c>
@@ -14593,7 +14471,7 @@
         <v>0.66128200000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>3700</v>
       </c>
@@ -14601,7 +14479,7 @@
         <v>0.74506600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>3800</v>
       </c>
@@ -14609,7 +14487,7 @@
         <v>0.43353700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>3900</v>
       </c>
@@ -14617,7 +14495,7 @@
         <v>0.68332199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -14625,7 +14503,7 @@
         <v>0.70272699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>4100</v>
       </c>
@@ -14633,7 +14511,7 @@
         <v>0.59489099999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>4200</v>
       </c>
@@ -14641,7 +14519,7 @@
         <v>0.67361099999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>4300</v>
       </c>
@@ -14649,7 +14527,7 @@
         <v>0.33901999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>4400</v>
       </c>
@@ -14657,7 +14535,7 @@
         <v>0.43901600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>4500</v>
       </c>
@@ -14665,7 +14543,7 @@
         <v>0.48141600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>4600</v>
       </c>
@@ -14673,7 +14551,7 @@
         <v>0.55011500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>4700</v>
       </c>
@@ -14681,7 +14559,7 @@
         <v>0.63587499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>4800</v>
       </c>
@@ -14689,7 +14567,7 @@
         <v>0.31819700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>4900</v>
       </c>
@@ -14697,7 +14575,7 @@
         <v>0.41874400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>5000</v>
       </c>
@@ -14712,12 +14590,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14726,17 +14604,408 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1E-4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.91738799999999998</v>
+      </c>
+      <c r="H2">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.80450100000000002</v>
+      </c>
+      <c r="J2">
+        <f>H2-F2</f>
+        <v>3.6399999999999988E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1E-4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="G3">
+        <v>0.96030800000000005</v>
+      </c>
+      <c r="H3">
+        <v>0.7228</v>
+      </c>
+      <c r="I3">
+        <v>0.79825299999999999</v>
+      </c>
+      <c r="J3">
+        <f>H3-F3</f>
+        <v>3.5799999999999943E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1E-4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.94877699999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.83743500000000004</v>
+      </c>
+      <c r="J4">
+        <f>H4-F4</f>
+        <v>3.2600000000000073E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>1E-4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.89487000000000005</v>
+      </c>
+      <c r="H5">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.80138100000000001</v>
+      </c>
+      <c r="J5">
+        <f>H5-F5</f>
+        <v>2.6599999999999957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>1E-4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>0.70230000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.89487000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.79603599999999997</v>
+      </c>
+      <c r="J6">
+        <f>H6-F6</f>
+        <v>3.2399999999999984E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1E-4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G7">
+        <v>1.00549</v>
+      </c>
+      <c r="H7">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.84744699999999995</v>
+      </c>
+      <c r="J7">
+        <f>H7-F7</f>
+        <v>5.5499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>1E-4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.98563999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I8">
+        <v>0.87454799999999999</v>
+      </c>
+      <c r="J8">
+        <f>H8-F8</f>
+        <v>4.049999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1E-4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="G9">
+        <v>0.92627099999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.7339</v>
+      </c>
+      <c r="I9">
+        <v>0.82370299999999996</v>
+      </c>
+      <c r="J9">
+        <f>H9-F9</f>
+        <v>3.1000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>1E-4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>0.7046</v>
+      </c>
+      <c r="G10">
+        <v>0.882046</v>
+      </c>
+      <c r="H10">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="I10">
+        <v>0.76460799999999995</v>
+      </c>
+      <c r="J10">
+        <f>H10-F10</f>
+        <v>3.4900000000000042E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>1E-4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="G11">
+        <v>1.06718</v>
+      </c>
+      <c r="H11">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="I11">
+        <v>0.89364100000000002</v>
+      </c>
+      <c r="J11">
+        <f>H11-F11</f>
+        <v>6.579999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J12">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exp_caffe\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="9570" activeTab="4"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,23 +167,35 @@
     <t>4k_Loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>InitW.L</t>
+  </si>
+  <si>
+    <t>InitW.Q</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -212,81 +229,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,7 +246,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -312,12 +274,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -605,6 +569,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -893,6 +858,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1181,6 +1147,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1469,16 +1436,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="89748608"/>
-        <c:axId val="89750528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286246592"/>
+        <c:axId val="286242280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89748608"/>
+        <c:axId val="286246592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1496,20 +1472,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89750528"/>
+        <c:crossAx val="286242280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89750528"/>
+        <c:axId val="286242280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1528,22 +1506,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89748608"/>
+        <c:crossAx val="286246592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1555,7 +1535,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1574,11 +1564,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1866,6 +1859,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2154,16 +2148,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="86631168"/>
-        <c:axId val="86633088"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="286243064"/>
+        <c:axId val="288500448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86631168"/>
+        <c:axId val="286243064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2182,19 +2185,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86633088"/>
+        <c:crossAx val="288500448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86633088"/>
+        <c:axId val="288500448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2213,20 +2219,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86631168"/>
+        <c:crossAx val="286243064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2238,7 +2248,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2257,12 +2277,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2553,6 +2575,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2832,6 +2855,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3123,6 +3147,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3402,6 +3427,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3693,6 +3719,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3984,6 +4011,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -4275,6 +4303,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -4566,16 +4595,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="87017344"/>
-        <c:axId val="87023616"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288505936"/>
+        <c:axId val="288502016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87017344"/>
+        <c:axId val="288505936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4594,20 +4632,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87023616"/>
+        <c:crossAx val="288502016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87023616"/>
+        <c:axId val="288502016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4627,22 +4667,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87017344"/>
+        <c:crossAx val="288505936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4654,7 +4696,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4673,12 +4725,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4957,6 +5011,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5236,6 +5291,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5527,6 +5583,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5818,16 +5875,25 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91327488"/>
-        <c:axId val="88409216"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288501624"/>
+        <c:axId val="288506328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91327488"/>
+        <c:axId val="288501624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5846,21 +5912,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88409216"/>
+        <c:crossAx val="288506328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88409216"/>
+        <c:axId val="288506328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5879,22 +5947,24 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91327488"/>
+        <c:crossAx val="288501624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5906,12 +5976,24 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6199,6 +6281,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6487,6 +6570,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6775,6 +6859,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7063,6 +7148,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7351,43 +7437,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="88443520"/>
-        <c:axId val="88461696"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288502408"/>
+        <c:axId val="288502800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88443520"/>
+        <c:axId val="288502408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88461696"/>
+        <c:crossAx val="288502800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88461696"/>
+        <c:axId val="288502800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88443520"/>
+        <c:crossAx val="288502408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -7399,12 +7500,24 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -7680,6 +7793,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7968,6 +8082,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8256,6 +8371,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8544,6 +8660,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -8832,42 +8949,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="88511232"/>
-        <c:axId val="88512768"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288500056"/>
+        <c:axId val="288503976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88511232"/>
+        <c:axId val="288500056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88512768"/>
+        <c:crossAx val="288503976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88512768"/>
+        <c:axId val="288503976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88511232"/>
+        <c:crossAx val="288500056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -8879,12 +9012,24 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -9160,6 +9305,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9448,6 +9594,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9736,6 +9883,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -10024,6 +10172,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -10312,42 +10461,58 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="91405312"/>
-        <c:axId val="91419392"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="288504368"/>
+        <c:axId val="288504760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91405312"/>
+        <c:axId val="288504368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91419392"/>
+        <c:crossAx val="288504760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91419392"/>
+        <c:axId val="288504760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91405312"/>
+        <c:crossAx val="288504368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -10592,14 +10757,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -10634,7 +10799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10666,9 +10831,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10700,6 +10866,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10875,33 +11042,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="23.875" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="19.25" customWidth="1"/>
-    <col min="16" max="16" width="18.625" customWidth="1"/>
-    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -14174,14 +14341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -14590,12 +14757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14604,14 +14771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14620,26 +14787,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -14656,19 +14824,25 @@
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1E-4</v>
       </c>
@@ -14685,23 +14859,25 @@
         <v>32</v>
       </c>
       <c r="F2">
+        <v>1E-4</v>
+      </c>
+      <c r="G2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H2">
         <v>0.69230000000000003</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.91738799999999998</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.72870000000000001</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.80450100000000002</v>
       </c>
-      <c r="J2">
-        <f>H2-F2</f>
-        <v>3.6399999999999988E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1E-4</v>
       </c>
@@ -14718,23 +14894,25 @@
         <v>33</v>
       </c>
       <c r="F3">
+        <v>1E-4</v>
+      </c>
+      <c r="G3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.96030800000000005</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.7228</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.79825299999999999</v>
       </c>
-      <c r="J3">
-        <f>H3-F3</f>
-        <v>3.5799999999999943E-2</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1E-4</v>
       </c>
@@ -14751,23 +14929,25 @@
         <v>32</v>
       </c>
       <c r="F4">
+        <v>1E-4</v>
+      </c>
+      <c r="G4">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H4">
         <v>0.68989999999999996</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.94877699999999998</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.72250000000000003</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.83743500000000004</v>
       </c>
-      <c r="J4">
-        <f>H4-F4</f>
-        <v>3.2600000000000073E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1E-4</v>
       </c>
@@ -14784,23 +14964,25 @@
         <v>33</v>
       </c>
       <c r="F5">
+        <v>1E-4</v>
+      </c>
+      <c r="G5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H5">
         <v>0.70230000000000004</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.89487000000000005</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.72889999999999999</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.80138100000000001</v>
       </c>
-      <c r="J5">
-        <f>H5-F5</f>
-        <v>2.6599999999999957E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>1E-4</v>
       </c>
@@ -14817,23 +14999,25 @@
         <v>32</v>
       </c>
       <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H6">
         <v>0.70230000000000004</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.89487000000000005</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.73470000000000002</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.79603599999999997</v>
       </c>
-      <c r="J6">
-        <f>H6-F6</f>
-        <v>3.2399999999999984E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>1E-4</v>
       </c>
@@ -14850,23 +15034,25 @@
         <v>33</v>
       </c>
       <c r="F7">
+        <v>1E-4</v>
+      </c>
+      <c r="G7">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H7">
         <v>0.66100000000000003</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.00549</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.71650000000000003</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.84744699999999995</v>
       </c>
-      <c r="J7">
-        <f>H7-F7</f>
-        <v>5.5499999999999994E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>1E-4</v>
       </c>
@@ -14883,23 +15069,25 @@
         <v>33</v>
       </c>
       <c r="F8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H8">
         <v>0.66649999999999998</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.98563999999999996</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.87454799999999999</v>
       </c>
-      <c r="J8">
-        <f>H8-F8</f>
-        <v>4.049999999999998E-2</v>
-      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>1E-4</v>
       </c>
@@ -14913,23 +15101,25 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H9">
         <v>0.70289999999999997</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.92627099999999996</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.7339</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.82370299999999996</v>
       </c>
-      <c r="J9">
-        <f>H9-F9</f>
-        <v>3.1000000000000028E-2</v>
-      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>1E-4</v>
       </c>
@@ -14946,23 +15136,25 @@
         <v>33</v>
       </c>
       <c r="F10">
+        <v>1E-4</v>
+      </c>
+      <c r="G10">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H10">
         <v>0.7046</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.882046</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.73950000000000005</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.76460799999999995</v>
       </c>
-      <c r="J10">
-        <f>H10-F10</f>
-        <v>3.4900000000000042E-2</v>
-      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1E-4</v>
       </c>
@@ -14979,25 +15171,586 @@
         <v>33</v>
       </c>
       <c r="F11">
+        <v>1E-4</v>
+      </c>
+      <c r="G11">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H11">
         <v>0.63219999999999998</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.06718</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.69799999999999995</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.89364100000000002</v>
       </c>
-      <c r="J11">
-        <f>H11-F11</f>
-        <v>6.579999999999997E-2</v>
-      </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
+    <row r="13" spans="1:11">
+      <c r="A13">
         <v>1E-4</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>1E-4</v>
+      </c>
+      <c r="G13">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H13">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.96599699999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="K13">
+        <v>0.81786499999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>1E-4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.05</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>1E-4</v>
+      </c>
+      <c r="G14">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H14">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.91182799999999997</v>
+      </c>
+      <c r="J14">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.76711499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>1E-4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.05</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <v>1E-4</v>
+      </c>
+      <c r="G15">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H15">
+        <v>0.70520000000000005</v>
+      </c>
+      <c r="I15">
+        <v>0.87797700000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.79437800000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>1E-4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>1E-4</v>
+      </c>
+      <c r="G16">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H16">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="I16">
+        <v>0.96645899999999996</v>
+      </c>
+      <c r="J16">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="K16">
+        <v>0.81317700000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>1E-4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>0.05</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
+      <c r="G17">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H17">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.889984</v>
+      </c>
+      <c r="J17">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.81430899999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>1E-4</v>
+      </c>
+      <c r="G18">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H18">
+        <v>0.7208</v>
+      </c>
+      <c r="I18">
+        <v>0.84516000000000002</v>
+      </c>
+      <c r="J18">
+        <v>0.75770000000000004</v>
+      </c>
+      <c r="K18">
+        <v>0.74826400000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G21">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H21">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="I21">
+        <v>0.94721100000000003</v>
+      </c>
+      <c r="J21">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.80289100000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>1E-4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G22">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="H22">
+        <v>0.69110000000000005</v>
+      </c>
+      <c r="I22">
+        <v>0.94931600000000005</v>
+      </c>
+      <c r="J22">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="K22">
+        <v>0.80757599999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>1E-4</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="G23">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H23">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="I23">
+        <v>0.99946100000000004</v>
+      </c>
+      <c r="J23">
+        <v>0.7339</v>
+      </c>
+      <c r="K23">
+        <v>0.79678899999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>1E-4</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H24">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="I24">
+        <v>1.0170300000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.91695199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>1E-4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>1E-4</v>
+      </c>
+      <c r="G25">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H25">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="I25">
+        <v>0.944824</v>
+      </c>
+      <c r="J25">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.79425199999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>1E-4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.05</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>1E-4</v>
+      </c>
+      <c r="G26">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="I26">
+        <v>0.92755399999999999</v>
+      </c>
+      <c r="J26">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="K26">
+        <v>0.81727799999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>1E-4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G27">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="H27">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="I27">
+        <v>0.89986699999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.7329</v>
+      </c>
+      <c r="K27">
+        <v>0.80438100000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>1E-4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>1E-4</v>
+      </c>
+      <c r="G29">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>1E-4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>1E-4</v>
+      </c>
+      <c r="G30">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>1E-4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>1E-4</v>
+      </c>
+      <c r="G31">
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>1E-4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>1E-4</v>
+      </c>
+      <c r="G32">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -15005,6 +15758,30 @@
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,15 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>symmetric</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
 </sst>
 </file>
 
@@ -1446,11 +1455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286246592"/>
-        <c:axId val="286242280"/>
+        <c:axId val="268971416"/>
+        <c:axId val="268972200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286246592"/>
+        <c:axId val="268971416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,12 +1487,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286242280"/>
+        <c:crossAx val="268972200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="286242280"/>
+        <c:axId val="268972200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1512,7 +1521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286246592"/>
+        <c:crossAx val="268971416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2158,11 +2167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="286243064"/>
-        <c:axId val="288500448"/>
+        <c:axId val="268970240"/>
+        <c:axId val="268976904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="286243064"/>
+        <c:axId val="268970240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,12 +2200,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288500448"/>
+        <c:crossAx val="268976904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288500448"/>
+        <c:axId val="268976904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="286243064"/>
+        <c:crossAx val="268970240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4605,11 +4614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288505936"/>
-        <c:axId val="288502016"/>
+        <c:axId val="268973376"/>
+        <c:axId val="268975728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288505936"/>
+        <c:axId val="268973376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4638,12 +4647,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288502016"/>
+        <c:crossAx val="268975728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288502016"/>
+        <c:axId val="268975728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4682,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288505936"/>
+        <c:crossAx val="268973376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5885,11 +5894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288501624"/>
-        <c:axId val="288506328"/>
+        <c:axId val="268974552"/>
+        <c:axId val="268970632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288501624"/>
+        <c:axId val="268974552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,12 +5927,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288506328"/>
+        <c:crossAx val="268970632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288506328"/>
+        <c:axId val="268970632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -5953,7 +5962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288501624"/>
+        <c:crossAx val="268974552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7447,11 +7456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288502408"/>
-        <c:axId val="288502800"/>
+        <c:axId val="268974160"/>
+        <c:axId val="268974944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288502408"/>
+        <c:axId val="268974160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7461,12 +7470,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288502800"/>
+        <c:crossAx val="268974944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288502800"/>
+        <c:axId val="268974944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7477,7 +7486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288502408"/>
+        <c:crossAx val="268974160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8959,11 +8968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288500056"/>
-        <c:axId val="288503976"/>
+        <c:axId val="268976120"/>
+        <c:axId val="341732208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288500056"/>
+        <c:axId val="268976120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8973,12 +8982,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288503976"/>
+        <c:crossAx val="341732208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288503976"/>
+        <c:axId val="341732208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8989,7 +8998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288500056"/>
+        <c:crossAx val="268976120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10471,11 +10480,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288504368"/>
-        <c:axId val="288504760"/>
+        <c:axId val="341735344"/>
+        <c:axId val="341731032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288504368"/>
+        <c:axId val="341735344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10485,12 +10494,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288504760"/>
+        <c:crossAx val="341731032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288504760"/>
+        <c:axId val="341731032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10501,7 +10510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288504368"/>
+        <c:crossAx val="341735344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14788,241 +14797,260 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
+    <row r="2" spans="1:13">
+      <c r="B2">
         <v>1E-4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1E-4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
         <v>0.69230000000000003</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.91738799999999998</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.72870000000000001</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.80450100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+    <row r="3" spans="1:13">
+      <c r="B3">
         <v>1E-4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1E-4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3">
         <v>0.68700000000000006</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.96030800000000005</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.7228</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.79825299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+    <row r="4" spans="1:13">
+      <c r="B4">
         <v>1E-4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0.01</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1E-4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
         <v>0.68989999999999996</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.94877699999999998</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.72250000000000003</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.83743500000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+    <row r="5" spans="1:13">
+      <c r="B5">
         <v>1E-4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1E-4</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5">
         <v>0.70230000000000004</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.89487000000000005</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.72889999999999999</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.80138100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+    <row r="6" spans="1:13">
+      <c r="B6">
         <v>1E-4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>0.1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1E-4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6">
         <v>0.70230000000000004</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.89487000000000005</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.73470000000000002</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.79603599999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="7" spans="1:13">
+      <c r="B7">
         <v>1E-4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -15030,735 +15058,1583 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1E-4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
         <v>0.66100000000000003</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.00549</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.71650000000000003</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.84744699999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="8" spans="1:13">
+      <c r="B8">
         <v>1E-4</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>100</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1E-4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8">
         <v>0.66649999999999998</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.98563999999999996</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.87454799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
+    <row r="9" spans="1:13">
+      <c r="B9">
         <v>1E-4</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1E-4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9">
         <v>0.70289999999999997</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.92627099999999996</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.7339</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.82370299999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
+    <row r="10" spans="1:13">
+      <c r="B10">
         <v>1E-4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1E-4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10">
         <v>0.7046</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.882046</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.73950000000000005</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.76460799999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
+    <row r="11" spans="1:13">
+      <c r="B11">
         <v>1E-4</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1E-4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
         <v>0.63219999999999998</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.06718</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.89364100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
+    <row r="13" spans="1:13">
+      <c r="B13">
         <v>1E-4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1E-4</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H13">
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
         <v>0.67420000000000002</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.96599699999999999</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.71989999999999998</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.81786499999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
+    <row r="14" spans="1:13">
+      <c r="B14">
         <v>1E-4</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.05</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1E-4</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H14">
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
         <v>0.69769999999999999</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.91182799999999997</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.74299999999999999</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.76711499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
+    <row r="15" spans="1:13">
+      <c r="B15">
         <v>1E-4</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>0.05</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1E-4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H15">
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15">
         <v>0.70520000000000005</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.87797700000000001</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.73819999999999997</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.79437800000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
+    <row r="16" spans="1:13">
+      <c r="B16">
         <v>1E-4</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>36</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1E-4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H16">
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
         <v>0.67390000000000005</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.96645899999999996</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.72519999999999996</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.81317700000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
+    <row r="17" spans="2:13">
+      <c r="B17">
         <v>1E-4</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.05</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>36</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1E-4</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H17">
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17">
         <v>0.70650000000000002</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.889984</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.73380000000000001</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.81430899999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+    <row r="18" spans="2:13">
+      <c r="B18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>100</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>36</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1E-4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H18">
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18">
         <v>0.7208</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.84516000000000002</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.75770000000000004</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.74826400000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+    <row r="19" spans="2:13">
+      <c r="B19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
         <v>36</v>
       </c>
+      <c r="G19">
+        <v>1E-4</v>
+      </c>
+      <c r="H19">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="K19">
+        <v>0.93908000000000003</v>
+      </c>
+      <c r="L19">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="M19">
+        <v>0.83006400000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
+    <row r="21" spans="2:13">
+      <c r="B21">
         <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>32</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H21">
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21">
         <v>0.68920000000000003</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.94721100000000003</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.72960000000000003</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.80289100000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
+    <row r="22" spans="2:13">
+      <c r="B22">
         <v>1E-4</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>0.1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="H22">
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22">
         <v>0.69110000000000005</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.94931600000000005</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.73099999999999998</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.80757599999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
+    <row r="23" spans="2:13">
+      <c r="B23">
         <v>1E-4</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>32</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H23">
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
         <v>0.67910000000000004</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.99946100000000004</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.7339</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.79678899999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
+    <row r="24" spans="2:13">
+      <c r="B24">
         <v>1E-4</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>39</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H24">
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24">
         <v>0.66990000000000005</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1.0170300000000001</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.70150000000000001</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.91695199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
+    <row r="25" spans="2:13">
+      <c r="B25">
         <v>1E-4</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>0.1</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1E-4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="H25">
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25">
         <v>0.69510000000000005</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.944824</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.73899999999999999</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>0.79425199999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
+    <row r="26" spans="2:13">
+      <c r="B26">
         <v>1E-4</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.05</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1E-4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="H26">
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26">
         <v>0.69810000000000005</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.92755399999999999</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.73240000000000005</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.81727799999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
+    <row r="27" spans="2:13">
+      <c r="B27">
         <v>1E-4</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.05</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>36</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="H27">
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27">
         <v>0.70409999999999995</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.89986699999999997</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.7329</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.80438100000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
+    <row r="29" spans="2:13">
+      <c r="B29">
         <v>1E-4</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.01</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>36</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1E-4</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="K29">
+        <v>0.89422199999999996</v>
+      </c>
+      <c r="L29">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.79116699999999995</v>
+      </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
+    <row r="30" spans="2:13">
+      <c r="B30">
         <v>1E-4</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1E-3</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1E-4</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="K30">
+        <v>0.97917600000000005</v>
+      </c>
+      <c r="L30">
+        <v>0.73229999999999995</v>
+      </c>
+      <c r="M30">
+        <v>0.83530199999999999</v>
+      </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
+    <row r="31" spans="2:13">
+      <c r="B31">
         <v>1E-4</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>36</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1E-4</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>9.9999999999999995E-8</v>
       </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31">
+        <v>0.7046</v>
+      </c>
+      <c r="K31">
+        <v>0.923153</v>
+      </c>
+      <c r="L31">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="M31">
+        <v>0.80561199999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
+    <row r="32" spans="2:13">
+      <c r="B32">
         <v>1E-4</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32">
+        <v>1E-4</v>
+      </c>
+      <c r="H32">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32">
+        <v>0.7137</v>
+      </c>
+      <c r="K32">
+        <v>0.87208699999999995</v>
+      </c>
+      <c r="L32">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.80871800000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33">
+        <v>1E-4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
         <v>1000</v>
       </c>
-      <c r="D32">
+      <c r="E33">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
-      <c r="F32">
+      <c r="G33">
         <v>1E-4</v>
       </c>
-      <c r="G32">
+      <c r="H33">
         <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.90483899999999995</v>
+      </c>
+      <c r="L33">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.80542499999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35">
+        <v>1E-4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35">
+        <v>1E-4</v>
+      </c>
+      <c r="H35">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35">
+        <v>0.6976</v>
+      </c>
+      <c r="K35">
+        <v>0.93462000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.73460000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.82373499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36">
+        <v>1E-4</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36">
+        <v>1E-4</v>
+      </c>
+      <c r="H36">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="K36">
+        <v>0.95555699999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="M36">
+        <v>0.85109800000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37">
+        <v>1E-4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>1E-4</v>
+      </c>
+      <c r="H37">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39">
+        <v>1E-4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39">
+        <v>1E-4</v>
+      </c>
+      <c r="H39">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="K39">
+        <v>1.00332</v>
+      </c>
+      <c r="L39">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="M39">
+        <v>0.89733200000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40">
+        <v>1E-4</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40">
+        <v>1E-4</v>
+      </c>
+      <c r="H40">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="K40">
+        <v>0.93880200000000003</v>
+      </c>
+      <c r="L40">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="M40">
+        <v>0.86985400000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41">
+        <v>1E-4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
+        <v>1E-4</v>
+      </c>
+      <c r="H41">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="K41">
+        <v>0.94004500000000002</v>
+      </c>
+      <c r="L41">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="M41">
+        <v>0.83556799999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43">
+        <v>1E-4</v>
+      </c>
+      <c r="H43">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.89081900000000003</v>
+      </c>
+      <c r="L43">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="M43">
+        <v>0.798323</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>1E-4</v>
+      </c>
+      <c r="H44">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K44">
+        <v>0.89673499999999995</v>
+      </c>
+      <c r="L44">
+        <v>0.73819999999999997</v>
+      </c>
+      <c r="M44">
+        <v>0.81680699999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1000</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45">
+        <v>1E-4</v>
+      </c>
+      <c r="H45">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>41</v>
+      </c>
+      <c r="J45">
+        <v>0.69279999999999997</v>
+      </c>
+      <c r="K45">
+        <v>0.96239399999999997</v>
+      </c>
+      <c r="L45">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="M45">
+        <v>0.82459099999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46">
+        <v>1E-4</v>
+      </c>
+      <c r="H46">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48">
+        <v>1E-4</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>1E-4</v>
+      </c>
+      <c r="H48">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48">
+        <v>0.70450000000000002</v>
+      </c>
+      <c r="K48">
+        <v>0.93342499999999995</v>
+      </c>
+      <c r="L48">
+        <v>0.74060000000000004</v>
+      </c>
+      <c r="M48">
+        <v>0.80813100000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>1E-4</v>
+      </c>
+      <c r="H50">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>1E-4</v>
+      </c>
+      <c r="H51">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <v>1E-4</v>
+      </c>
+      <c r="H53">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>1E-4</v>
+      </c>
+      <c r="H54">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55">
+        <v>1E-4</v>
+      </c>
+      <c r="H55">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57">
+        <v>1E-4</v>
+      </c>
+      <c r="H57">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58">
+        <v>1E-4</v>
+      </c>
+      <c r="H58">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J12">
-    <sortCondition ref="B1"/>
+  <sortState ref="B2:K12">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="J1:J18 J20:J39 J41:J1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L18 L20:L39 L41:L1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L39 L41:L1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J39 J41:J1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,9 @@
   <si>
     <t>dir</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -1455,11 +1458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268971416"/>
-        <c:axId val="268972200"/>
+        <c:axId val="248472016"/>
+        <c:axId val="248474760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268971416"/>
+        <c:axId val="248472016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,12 +1490,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268972200"/>
+        <c:crossAx val="248474760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268972200"/>
+        <c:axId val="248474760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268971416"/>
+        <c:crossAx val="248472016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2167,11 +2170,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268970240"/>
-        <c:axId val="268976904"/>
+        <c:axId val="250150728"/>
+        <c:axId val="354248664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268970240"/>
+        <c:axId val="250150728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2203,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268976904"/>
+        <c:crossAx val="354248664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268976904"/>
+        <c:axId val="354248664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2237,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268970240"/>
+        <c:crossAx val="250150728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4614,11 +4617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268973376"/>
-        <c:axId val="268975728"/>
+        <c:axId val="354248272"/>
+        <c:axId val="354251800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268973376"/>
+        <c:axId val="354248272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,12 +4650,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268975728"/>
+        <c:crossAx val="354251800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268975728"/>
+        <c:axId val="354251800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4682,7 +4685,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268973376"/>
+        <c:crossAx val="354248272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5894,11 +5897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268974552"/>
-        <c:axId val="268970632"/>
+        <c:axId val="354252976"/>
+        <c:axId val="354249056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268974552"/>
+        <c:axId val="354252976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5927,12 +5930,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268970632"/>
+        <c:crossAx val="354249056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268970632"/>
+        <c:axId val="354249056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -5962,7 +5965,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268974552"/>
+        <c:crossAx val="354252976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7456,11 +7459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268974160"/>
-        <c:axId val="268974944"/>
+        <c:axId val="354252192"/>
+        <c:axId val="354254152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268974160"/>
+        <c:axId val="354252192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7470,12 +7473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268974944"/>
+        <c:crossAx val="354254152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268974944"/>
+        <c:axId val="354254152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7486,7 +7489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268974160"/>
+        <c:crossAx val="354252192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8968,11 +8971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268976120"/>
-        <c:axId val="341732208"/>
+        <c:axId val="354250624"/>
+        <c:axId val="354251016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268976120"/>
+        <c:axId val="354250624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8982,12 +8985,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341732208"/>
+        <c:crossAx val="354251016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341732208"/>
+        <c:axId val="354251016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8998,7 +9001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="268976120"/>
+        <c:crossAx val="354250624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10480,11 +10483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="341735344"/>
-        <c:axId val="341731032"/>
+        <c:axId val="354252584"/>
+        <c:axId val="354981848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="341735344"/>
+        <c:axId val="354252584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10494,12 +10497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341731032"/>
+        <c:crossAx val="354981848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="341731032"/>
+        <c:axId val="354981848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10510,7 +10513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="341735344"/>
+        <c:crossAx val="354252584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14797,10 +14800,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16058,6 +16061,18 @@
       <c r="I37" t="s">
         <v>36</v>
       </c>
+      <c r="J37">
+        <v>0.69610000000000005</v>
+      </c>
+      <c r="K37">
+        <v>0.97557499999999997</v>
+      </c>
+      <c r="L37">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.85089800000000004</v>
+      </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39">
@@ -16312,6 +16327,18 @@
       <c r="I46" t="s">
         <v>41</v>
       </c>
+      <c r="J46">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.891378</v>
+      </c>
+      <c r="L46">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="M46">
+        <v>0.81682999999999995</v>
+      </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48">
@@ -16351,7 +16378,7 @@
         <v>0.80813100000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:13">
       <c r="B50">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16376,8 +16403,20 @@
       <c r="I50" t="s">
         <v>36</v>
       </c>
+      <c r="J50">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="K50">
+        <v>0.88341999999999998</v>
+      </c>
+      <c r="L50">
+        <v>0.74129999999999996</v>
+      </c>
+      <c r="M50">
+        <v>0.79760699999999995</v>
+      </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:13">
       <c r="B51">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16402,8 +16441,20 @@
       <c r="I51" t="s">
         <v>36</v>
       </c>
+      <c r="J51">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="K51">
+        <v>0.85504100000000005</v>
+      </c>
+      <c r="L51">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="M51">
+        <v>0.76043899999999998</v>
+      </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:13">
       <c r="B53">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16428,8 +16479,20 @@
       <c r="I53" t="s">
         <v>41</v>
       </c>
+      <c r="J53">
+        <v>0.72309999999999997</v>
+      </c>
+      <c r="K53">
+        <v>0.82077999999999995</v>
+      </c>
+      <c r="L53">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="M53">
+        <v>0.75161299999999998</v>
+      </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:13">
       <c r="B54">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16454,8 +16517,20 @@
       <c r="I54" t="s">
         <v>41</v>
       </c>
+      <c r="J54">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K54">
+        <v>0.84673100000000001</v>
+      </c>
+      <c r="L54">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="M54">
+        <v>0.75381699999999996</v>
+      </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:13">
       <c r="B55">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16480,8 +16555,20 @@
       <c r="I55" t="s">
         <v>41</v>
       </c>
+      <c r="J55">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="K55">
+        <v>0.82757599999999998</v>
+      </c>
+      <c r="L55">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="M55">
+        <v>0.75727</v>
+      </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:13">
       <c r="B57">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16506,8 +16593,20 @@
       <c r="I57" t="s">
         <v>41</v>
       </c>
+      <c r="J57">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="K57">
+        <v>0.98967499999999997</v>
+      </c>
+      <c r="L57">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="M57">
+        <v>0.88073599999999996</v>
+      </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:13">
       <c r="B58">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16531,6 +16630,132 @@
       </c>
       <c r="I58" t="s">
         <v>41</v>
+      </c>
+      <c r="J58">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="K58">
+        <v>0.88577600000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="M58">
+        <v>0.81674500000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60">
+        <v>1E-4</v>
+      </c>
+      <c r="H60">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="K60">
+        <v>0.847356</v>
+      </c>
+      <c r="L60">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="M60">
+        <v>0.75095199999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" t="s">
+        <v>43</v>
+      </c>
+      <c r="J61">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="K61">
+        <v>0.911964</v>
+      </c>
+      <c r="L61">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="M61">
+        <v>0.76627599999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="K62">
+        <v>0.89091100000000001</v>
+      </c>
+      <c r="L62">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.76741099999999995</v>
       </c>
     </row>
   </sheetData>
@@ -16538,7 +16763,31 @@
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J1:J18 J20:J39 J41:J1048576">
+  <conditionalFormatting sqref="J1:J18 J20:J39 J41:J52 J55:J1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L18 L20:L39 L41:L52 L55:L1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L39 L41:L52 L55:L1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -16550,7 +16799,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L18 L20:L39 L41:L1048576">
+  <conditionalFormatting sqref="J1:J39 J41:J52 J55:J1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -16562,7 +16811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L39 L41:L1048576">
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16574,7 +16823,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J39 J41:J1048576">
+  <conditionalFormatting sqref="L40">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16586,7 +16835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="L40">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16598,7 +16847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+  <conditionalFormatting sqref="J40">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -16610,7 +16859,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
+  <conditionalFormatting sqref="L1:L52 L55:L1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -16622,7 +16871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40">
+  <conditionalFormatting sqref="J1:J52 J55:J1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exp_caffe\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\exp_caffe\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,28 +186,33 @@
     <t>o</t>
   </si>
   <si>
-    <t>dir</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>filter_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,7 +246,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,7 +264,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1458,11 +1463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248472016"/>
-        <c:axId val="248474760"/>
+        <c:axId val="318155760"/>
+        <c:axId val="318274136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248472016"/>
+        <c:axId val="318155760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,12 +1495,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248474760"/>
+        <c:crossAx val="318274136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248474760"/>
+        <c:axId val="318274136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1529,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248472016"/>
+        <c:crossAx val="318155760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1548,7 +1553,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2170,11 +2175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="250150728"/>
-        <c:axId val="354248664"/>
+        <c:axId val="318229480"/>
+        <c:axId val="318229864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="250150728"/>
+        <c:axId val="318229480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,12 +2208,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354248664"/>
+        <c:crossAx val="318229864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354248664"/>
+        <c:axId val="318229864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2242,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="250150728"/>
+        <c:crossAx val="318229480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2261,7 +2266,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4617,11 +4622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354248272"/>
-        <c:axId val="354251800"/>
+        <c:axId val="319124392"/>
+        <c:axId val="319124776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354248272"/>
+        <c:axId val="319124392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4650,12 +4655,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354251800"/>
+        <c:crossAx val="319124776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354251800"/>
+        <c:axId val="319124776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,7 +4690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354248272"/>
+        <c:crossAx val="319124392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4709,7 +4714,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5897,11 +5902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354252976"/>
-        <c:axId val="354249056"/>
+        <c:axId val="319137880"/>
+        <c:axId val="318870848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354252976"/>
+        <c:axId val="319137880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5930,12 +5935,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354249056"/>
+        <c:crossAx val="318870848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354249056"/>
+        <c:axId val="318870848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -5965,7 +5970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354252976"/>
+        <c:crossAx val="319137880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5989,7 +5994,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7459,11 +7464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354252192"/>
-        <c:axId val="354254152"/>
+        <c:axId val="318871632"/>
+        <c:axId val="318872024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354252192"/>
+        <c:axId val="318871632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,12 +7478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354254152"/>
+        <c:crossAx val="318872024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354254152"/>
+        <c:axId val="318872024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7489,7 +7494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354252192"/>
+        <c:crossAx val="318871632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7513,7 +7518,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8971,11 +8976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354250624"/>
-        <c:axId val="354251016"/>
+        <c:axId val="318874768"/>
+        <c:axId val="318875160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354250624"/>
+        <c:axId val="318874768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8985,12 +8990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354251016"/>
+        <c:crossAx val="318875160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354251016"/>
+        <c:axId val="318875160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9001,7 +9006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354250624"/>
+        <c:crossAx val="318874768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9025,7 +9030,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10483,11 +10488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="354252584"/>
-        <c:axId val="354981848"/>
+        <c:axId val="318875944"/>
+        <c:axId val="318876336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="354252584"/>
+        <c:axId val="318875944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10497,12 +10502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354981848"/>
+        <c:crossAx val="318876336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="354981848"/>
+        <c:axId val="318876336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10513,7 +10518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="354252584"/>
+        <c:crossAx val="318875944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10769,7 +10774,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11061,29 +11066,29 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="23.875" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
+    <col min="17" max="17" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.875" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11160,7 +11165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>1.7115400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>200</v>
       </c>
@@ -11290,7 +11295,7 @@
         <v>1.6436299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>300</v>
       </c>
@@ -11355,7 +11360,7 @@
         <v>1.5139100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>400</v>
       </c>
@@ -11420,7 +11425,7 @@
         <v>1.4438</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>500</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>1.3416699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>600</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>1.27888</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>700</v>
       </c>
@@ -11651,7 +11656,7 @@
         <v>1.29511</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>800</v>
       </c>
@@ -11728,7 +11733,7 @@
         <v>1.1917599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>900</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>1.17391</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -11882,7 +11887,7 @@
         <v>1.1868300000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -11959,7 +11964,7 @@
         <v>1.1696800000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -12036,7 +12041,7 @@
         <v>1.1598299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -12113,7 +12118,7 @@
         <v>1.0983099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -12190,7 +12195,7 @@
         <v>1.0749899999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -12267,7 +12272,7 @@
         <v>1.0800399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -12344,7 +12349,7 @@
         <v>1.02627</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -12421,7 +12426,7 @@
         <v>1.0628599999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -12498,7 +12503,7 @@
         <v>1.01112</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -12575,7 +12580,7 @@
         <v>0.99816499999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -12652,7 +12657,7 @@
         <v>1.0260199999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -12729,7 +12734,7 @@
         <v>0.97097800000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -12806,7 +12811,7 @@
         <v>0.96952000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -12883,7 +12888,7 @@
         <v>0.985823</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>0.95281800000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>0.96326199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -13114,7 +13119,7 @@
         <v>0.939079</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -13191,7 +13196,7 @@
         <v>0.94086199999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -13268,7 +13273,7 @@
         <v>0.96377599999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -13345,7 +13350,7 @@
         <v>0.94803700000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>0.97191799999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -13499,7 +13504,7 @@
         <v>0.91268899999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -13576,7 +13581,7 @@
         <v>0.9506</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -13653,7 +13658,7 @@
         <v>0.93092900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -13730,7 +13735,7 @@
         <v>0.91857599999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>0.92845999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -13884,7 +13889,7 @@
         <v>0.877834</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -13961,7 +13966,7 @@
         <v>0.96457099999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -14038,7 +14043,7 @@
         <v>0.96956900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -14115,7 +14120,7 @@
         <v>0.91084799999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -14192,7 +14197,7 @@
         <v>0.91584299999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4500</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>0.79361999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>5000</v>
       </c>
@@ -14360,9 +14365,9 @@
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>100</v>
       </c>
@@ -14370,7 +14375,7 @@
         <v>1.8380000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>200</v>
       </c>
@@ -14378,7 +14383,7 @@
         <v>1.54399</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>300</v>
       </c>
@@ -14386,7 +14391,7 @@
         <v>1.21025</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>400</v>
       </c>
@@ -14394,7 +14399,7 @@
         <v>1.2250399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>500</v>
       </c>
@@ -14402,7 +14407,7 @@
         <v>1.40486</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>600</v>
       </c>
@@ -14410,7 +14415,7 @@
         <v>1.22722</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>700</v>
       </c>
@@ -14418,7 +14423,7 @@
         <v>1.2252700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>800</v>
       </c>
@@ -14426,7 +14431,7 @@
         <v>0.86980999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>900</v>
       </c>
@@ -14434,7 +14439,7 @@
         <v>1.0119</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -14442,7 +14447,7 @@
         <v>1.0942700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1100</v>
       </c>
@@ -14450,7 +14455,7 @@
         <v>1.06179</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1200</v>
       </c>
@@ -14458,7 +14463,7 @@
         <v>1.0481499999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1300</v>
       </c>
@@ -14466,7 +14471,7 @@
         <v>0.71119299999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1400</v>
       </c>
@@ -14474,7 +14479,7 @@
         <v>0.90256899999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1500</v>
       </c>
@@ -14482,7 +14487,7 @@
         <v>0.91443099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1600</v>
       </c>
@@ -14490,7 +14495,7 @@
         <v>0.84824699999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1700</v>
       </c>
@@ -14498,7 +14503,7 @@
         <v>0.91861700000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -14506,7 +14511,7 @@
         <v>0.637324</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1900</v>
       </c>
@@ -14514,7 +14519,7 @@
         <v>0.81530400000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2000</v>
       </c>
@@ -14522,7 +14527,7 @@
         <v>0.83082299999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2100</v>
       </c>
@@ -14530,7 +14535,7 @@
         <v>0.79962500000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2200</v>
       </c>
@@ -14538,7 +14543,7 @@
         <v>0.86688200000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2300</v>
       </c>
@@ -14546,7 +14551,7 @@
         <v>0.54902799999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2400</v>
       </c>
@@ -14554,7 +14559,7 @@
         <v>0.80520599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2500</v>
       </c>
@@ -14562,7 +14567,7 @@
         <v>0.743668</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2600</v>
       </c>
@@ -14570,7 +14575,7 @@
         <v>0.72719199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2700</v>
       </c>
@@ -14578,7 +14583,7 @@
         <v>0.80559800000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2800</v>
       </c>
@@ -14586,7 +14591,7 @@
         <v>0.49884800000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2900</v>
       </c>
@@ -14594,7 +14599,7 @@
         <v>0.74312900000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3000</v>
       </c>
@@ -14602,7 +14607,7 @@
         <v>0.71632200000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3100</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>0.68742000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3200</v>
       </c>
@@ -14618,7 +14623,7 @@
         <v>0.75489499999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3300</v>
       </c>
@@ -14626,7 +14631,7 @@
         <v>0.46958299999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3400</v>
       </c>
@@ -14634,7 +14639,7 @@
         <v>0.73646199999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3500</v>
       </c>
@@ -14642,7 +14647,7 @@
         <v>0.69908800000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3600</v>
       </c>
@@ -14650,7 +14655,7 @@
         <v>0.66128200000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3700</v>
       </c>
@@ -14658,7 +14663,7 @@
         <v>0.74506600000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>3800</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>0.43353700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3900</v>
       </c>
@@ -14674,7 +14679,7 @@
         <v>0.68332199999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4000</v>
       </c>
@@ -14682,7 +14687,7 @@
         <v>0.70272699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4100</v>
       </c>
@@ -14690,7 +14695,7 @@
         <v>0.59489099999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>4200</v>
       </c>
@@ -14698,7 +14703,7 @@
         <v>0.67361099999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>4300</v>
       </c>
@@ -14706,7 +14711,7 @@
         <v>0.33901999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4400</v>
       </c>
@@ -14714,7 +14719,7 @@
         <v>0.43901600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>4500</v>
       </c>
@@ -14722,7 +14727,7 @@
         <v>0.48141600000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>4600</v>
       </c>
@@ -14730,7 +14735,7 @@
         <v>0.55011500000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>4700</v>
       </c>
@@ -14738,7 +14743,7 @@
         <v>0.63587499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>4800</v>
       </c>
@@ -14746,7 +14751,7 @@
         <v>0.31819700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>4900</v>
       </c>
@@ -14754,7 +14759,7 @@
         <v>0.41874400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>5000</v>
       </c>
@@ -14774,7 +14779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14790,7 +14795,7 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14800,29 +14805,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -14861,7 +14867,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>16</v>
+      </c>
       <c r="B2">
         <v>1E-4</v>
       </c>
@@ -14899,7 +14908,10 @@
         <v>0.80450100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>16</v>
+      </c>
       <c r="B3">
         <v>1E-4</v>
       </c>
@@ -14937,7 +14949,10 @@
         <v>0.79825299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>16</v>
+      </c>
       <c r="B4">
         <v>1E-4</v>
       </c>
@@ -14975,7 +14990,10 @@
         <v>0.83743500000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>16</v>
+      </c>
       <c r="B5">
         <v>1E-4</v>
       </c>
@@ -15013,7 +15031,10 @@
         <v>0.80138100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>16</v>
+      </c>
       <c r="B6">
         <v>1E-4</v>
       </c>
@@ -15051,7 +15072,10 @@
         <v>0.79603599999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>16</v>
+      </c>
       <c r="B7">
         <v>1E-4</v>
       </c>
@@ -15089,7 +15113,10 @@
         <v>0.84744699999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>16</v>
+      </c>
       <c r="B8">
         <v>1E-4</v>
       </c>
@@ -15127,7 +15154,10 @@
         <v>0.87454799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>16</v>
+      </c>
       <c r="B9">
         <v>1E-4</v>
       </c>
@@ -15162,7 +15192,10 @@
         <v>0.82370299999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>16</v>
+      </c>
       <c r="B10">
         <v>1E-4</v>
       </c>
@@ -15200,7 +15233,10 @@
         <v>0.76460799999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>16</v>
+      </c>
       <c r="B11">
         <v>1E-4</v>
       </c>
@@ -15238,7 +15274,10 @@
         <v>0.89364100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>16</v>
+      </c>
       <c r="B13">
         <v>1E-4</v>
       </c>
@@ -15276,7 +15315,10 @@
         <v>0.81786499999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>16</v>
+      </c>
       <c r="B14">
         <v>1E-4</v>
       </c>
@@ -15314,7 +15356,10 @@
         <v>0.76711499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>16</v>
+      </c>
       <c r="B15">
         <v>1E-4</v>
       </c>
@@ -15352,7 +15397,10 @@
         <v>0.79437800000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>16</v>
+      </c>
       <c r="B16">
         <v>1E-4</v>
       </c>
@@ -15390,7 +15438,10 @@
         <v>0.81317700000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
         <v>1E-4</v>
       </c>
@@ -15428,7 +15479,10 @@
         <v>0.81430899999999995</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18">
         <v>1E-4</v>
       </c>
@@ -15466,7 +15520,10 @@
         <v>0.74826400000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19">
         <v>1E-4</v>
       </c>
@@ -15504,7 +15561,10 @@
         <v>0.83006400000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>16</v>
+      </c>
       <c r="B21">
         <v>1E-4</v>
       </c>
@@ -15542,7 +15602,10 @@
         <v>0.80289100000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>16</v>
+      </c>
       <c r="B22">
         <v>1E-4</v>
       </c>
@@ -15580,7 +15643,10 @@
         <v>0.80757599999999996</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>16</v>
+      </c>
       <c r="B23">
         <v>1E-4</v>
       </c>
@@ -15618,7 +15684,10 @@
         <v>0.79678899999999997</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>16</v>
+      </c>
       <c r="B24">
         <v>1E-4</v>
       </c>
@@ -15656,7 +15725,10 @@
         <v>0.91695199999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>16</v>
+      </c>
       <c r="B25">
         <v>1E-4</v>
       </c>
@@ -15694,7 +15766,10 @@
         <v>0.79425199999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>16</v>
+      </c>
       <c r="B26">
         <v>1E-4</v>
       </c>
@@ -15732,7 +15807,10 @@
         <v>0.81727799999999995</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>16</v>
+      </c>
       <c r="B27">
         <v>1E-4</v>
       </c>
@@ -15770,7 +15848,10 @@
         <v>0.80438100000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>16</v>
+      </c>
       <c r="B29">
         <v>1E-4</v>
       </c>
@@ -15808,7 +15889,10 @@
         <v>0.79116699999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>16</v>
+      </c>
       <c r="B30">
         <v>1E-4</v>
       </c>
@@ -15846,7 +15930,10 @@
         <v>0.83530199999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16</v>
+      </c>
       <c r="B31">
         <v>1E-4</v>
       </c>
@@ -15884,7 +15971,10 @@
         <v>0.80561199999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>16</v>
+      </c>
       <c r="B32">
         <v>1E-4</v>
       </c>
@@ -15922,7 +16012,10 @@
         <v>0.80871800000000005</v>
       </c>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>16</v>
+      </c>
       <c r="B33">
         <v>1E-4</v>
       </c>
@@ -15960,7 +16053,10 @@
         <v>0.80542499999999995</v>
       </c>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>16</v>
+      </c>
       <c r="B35">
         <v>1E-4</v>
       </c>
@@ -15998,7 +16094,10 @@
         <v>0.82373499999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>16</v>
+      </c>
       <c r="B36">
         <v>1E-4</v>
       </c>
@@ -16036,7 +16135,10 @@
         <v>0.85109800000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>16</v>
+      </c>
       <c r="B37">
         <v>1E-4</v>
       </c>
@@ -16074,7 +16176,10 @@
         <v>0.85089800000000004</v>
       </c>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>16</v>
+      </c>
       <c r="B39">
         <v>1E-4</v>
       </c>
@@ -16112,7 +16217,10 @@
         <v>0.89733200000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>16</v>
+      </c>
       <c r="B40">
         <v>1E-4</v>
       </c>
@@ -16150,7 +16258,10 @@
         <v>0.86985400000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>16</v>
+      </c>
       <c r="B41">
         <v>1E-4</v>
       </c>
@@ -16188,7 +16299,10 @@
         <v>0.83556799999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>16</v>
+      </c>
       <c r="B43">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16226,7 +16340,10 @@
         <v>0.798323</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>16</v>
+      </c>
       <c r="B44">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16264,7 +16381,10 @@
         <v>0.81680699999999995</v>
       </c>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>16</v>
+      </c>
       <c r="B45">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16302,7 +16422,10 @@
         <v>0.82459099999999996</v>
       </c>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>16</v>
+      </c>
       <c r="B46">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16340,7 +16463,10 @@
         <v>0.81682999999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>16</v>
+      </c>
       <c r="B48">
         <v>1E-4</v>
       </c>
@@ -16378,7 +16504,10 @@
         <v>0.80813100000000004</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>16</v>
+      </c>
       <c r="B50">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16416,7 +16545,10 @@
         <v>0.79760699999999995</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>16</v>
+      </c>
       <c r="B51">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16454,7 +16586,10 @@
         <v>0.76043899999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>16</v>
+      </c>
       <c r="B53">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16492,7 +16627,10 @@
         <v>0.75161299999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>16</v>
+      </c>
       <c r="B54">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16530,7 +16668,10 @@
         <v>0.75381699999999996</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>16</v>
+      </c>
       <c r="B55">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -16568,7 +16709,10 @@
         <v>0.75727</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>16</v>
+      </c>
       <c r="B57">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16606,7 +16750,10 @@
         <v>0.88073599999999996</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>16</v>
+      </c>
       <c r="B58">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -16644,7 +16791,10 @@
         <v>0.81674500000000005</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>16</v>
+      </c>
       <c r="B60">
         <v>0</v>
       </c>
@@ -16682,30 +16832,33 @@
         <v>0.75095199999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>16</v>
+      </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>0.70279999999999998</v>
@@ -16720,30 +16873,33 @@
         <v>0.76627599999999996</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>16</v>
+      </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>0.69879999999999998</v>
@@ -16756,6 +16912,129 @@
       </c>
       <c r="M62">
         <v>0.76741099999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64">
+        <v>1E-4</v>
+      </c>
+      <c r="H64">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>41</v>
+      </c>
+      <c r="J64">
+        <v>0.72809999999999997</v>
+      </c>
+      <c r="K64">
+        <v>0.81267500000000004</v>
+      </c>
+      <c r="L64">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="M64">
+        <v>0.74101099999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>44</v>
+      </c>
+      <c r="I65" t="s">
+        <v>44</v>
+      </c>
+      <c r="J65">
+        <v>0.70089999999999997</v>
+      </c>
+      <c r="K65">
+        <v>0.89874200000000004</v>
+      </c>
+      <c r="L65">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.75528300000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="K67">
+        <v>0.85144900000000001</v>
+      </c>
+      <c r="L67">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="M67">
+        <v>0.74971399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -16908,6 +17187,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Data.xlsx
+++ b/doc/Data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="45">
   <si>
     <t>Iter</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1463,11 +1463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318155760"/>
-        <c:axId val="318274136"/>
+        <c:axId val="326941624"/>
+        <c:axId val="328166896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318155760"/>
+        <c:axId val="326941624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,12 +1495,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318274136"/>
+        <c:crossAx val="328166896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318274136"/>
+        <c:axId val="328166896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1529,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318155760"/>
+        <c:crossAx val="326941624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2175,11 +2175,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318229480"/>
-        <c:axId val="318229864"/>
+        <c:axId val="328367176"/>
+        <c:axId val="328367560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318229480"/>
+        <c:axId val="328367176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2208,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318229864"/>
+        <c:crossAx val="328367560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318229864"/>
+        <c:axId val="328367560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2242,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318229480"/>
+        <c:crossAx val="328367176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4622,11 +4622,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319124392"/>
-        <c:axId val="319124776"/>
+        <c:axId val="328221744"/>
+        <c:axId val="328251024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319124392"/>
+        <c:axId val="328221744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,12 +4655,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319124776"/>
+        <c:crossAx val="328251024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319124776"/>
+        <c:axId val="328251024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4690,7 +4690,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319124392"/>
+        <c:crossAx val="328221744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5902,11 +5902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319137880"/>
-        <c:axId val="318870848"/>
+        <c:axId val="325987432"/>
+        <c:axId val="325987824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319137880"/>
+        <c:axId val="325987432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5935,12 +5935,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318870848"/>
+        <c:crossAx val="325987824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318870848"/>
+        <c:axId val="325987824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3000000000000001"/>
@@ -5970,7 +5970,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319137880"/>
+        <c:crossAx val="325987432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7464,11 +7464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318871632"/>
-        <c:axId val="318872024"/>
+        <c:axId val="326417928"/>
+        <c:axId val="326418320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318871632"/>
+        <c:axId val="326417928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7478,12 +7478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318872024"/>
+        <c:crossAx val="326418320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318872024"/>
+        <c:axId val="326418320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7494,7 +7494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318871632"/>
+        <c:crossAx val="326417928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8976,11 +8976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318874768"/>
-        <c:axId val="318875160"/>
+        <c:axId val="326419496"/>
+        <c:axId val="326419888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318874768"/>
+        <c:axId val="326419496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8990,12 +8990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318875160"/>
+        <c:crossAx val="326419888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318875160"/>
+        <c:axId val="326419888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9006,7 +9006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318874768"/>
+        <c:crossAx val="326419496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10488,11 +10488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318875944"/>
-        <c:axId val="318876336"/>
+        <c:axId val="326420672"/>
+        <c:axId val="328376160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318875944"/>
+        <c:axId val="326420672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10502,12 +10502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318876336"/>
+        <c:crossAx val="328376160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318876336"/>
+        <c:axId val="328376160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10518,7 +10518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318875944"/>
+        <c:crossAx val="326420672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14807,8 +14807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16881,7 +16881,7 @@
         <v>42</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
@@ -16994,6 +16994,47 @@
       </c>
       <c r="M65">
         <v>0.75528300000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66">
+        <v>1E-4</v>
+      </c>
+      <c r="H66">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="K66">
+        <v>0.83592599999999995</v>
+      </c>
+      <c r="L66">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.729487</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
